--- a/documents/外部設計/061225_データベース設計書_落穂ひろい.xlsx
+++ b/documents/外部設計/061225_データベース設計書_落穂ひろい.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\plusdojo2025\A5\documents\外部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8F7D2B8-09D8-4A4A-96BA-97D58C0EAB5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1543B2D8-BB8D-40E9-A865-6D3D691CE581}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="19380" windowHeight="20970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="85">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -595,7 +595,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1=Red  2=Yellow  3=Green</t>
+    <t>1=Green  2=Yellow  3=Red</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1025,7 +1025,7 @@
   </sheetPr>
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -1442,8 +1442,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E99A6B0F-C25F-4EA5-B38A-0940CB4B168C}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1494,7 +1494,9 @@
       <c r="B4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="3"/>
+      <c r="C4" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="D4" s="1" t="s">
         <v>4</v>
       </c>
@@ -1506,7 +1508,9 @@
       <c r="B5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="3"/>
+      <c r="C5" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
       </c>
@@ -1547,7 +1551,7 @@
       </c>
       <c r="L9" t="str">
         <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table  (</v>
+        <v>create table user (</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.15">
@@ -1973,8 +1977,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2500,8 +2504,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79B33EA2-626B-430F-8E94-8B4B16AE7525}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2552,7 +2556,9 @@
       <c r="B4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="3"/>
+      <c r="C4" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="D4" s="1" t="s">
         <v>4</v>
       </c>
@@ -2564,7 +2570,9 @@
       <c r="B5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="3"/>
+      <c r="C5" s="3" t="s">
+        <v>33</v>
+      </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
       </c>
@@ -2605,7 +2613,7 @@
       </c>
       <c r="L9" t="str">
         <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table  (</v>
+        <v>create table event (</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.15">
@@ -3013,8 +3021,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{034BC70C-75C3-4172-8651-A4CAADD718B7}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView topLeftCell="E1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3065,7 +3073,9 @@
       <c r="B4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="3"/>
+      <c r="C4" s="3" t="s">
+        <v>38</v>
+      </c>
       <c r="D4" s="1" t="s">
         <v>4</v>
       </c>
@@ -3077,7 +3087,9 @@
       <c r="B5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="3"/>
+      <c r="C5" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
       </c>
@@ -3118,7 +3130,7 @@
       </c>
       <c r="L9" t="str">
         <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table  (</v>
+        <v>create table event_button (</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.15">
@@ -3522,8 +3534,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D60B1F0D-DEC1-43A6-98A1-7AE8A7B94815}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3574,7 +3586,9 @@
       <c r="B4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="3"/>
+      <c r="C4" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="D4" s="1" t="s">
         <v>4</v>
       </c>
@@ -3586,7 +3600,9 @@
       <c r="B5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="3"/>
+      <c r="C5" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
       </c>
@@ -3627,7 +3643,7 @@
       </c>
       <c r="L9" t="str">
         <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table  (</v>
+        <v>create table manual (</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.15">
@@ -4025,8 +4041,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D0D38B3-62B0-4DBD-9A4D-147ECC93EA1C}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/documents/外部設計/061225_データベース設計書_落穂ひろい.xlsx
+++ b/documents/外部設計/061225_データベース設計書_落穂ひろい.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\plusdojo2025\A5\documents\外部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1543B2D8-BB8D-40E9-A865-6D3D691CE581}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC9CFA66-6DE0-436B-9B41-52443DA12C94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="19380" windowHeight="20970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3645" yWindow="12705" windowWidth="22890" windowHeight="14955" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -1029,21 +1029,21 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.5" customWidth="1"/>
-    <col min="4" max="4" width="17.875" customWidth="1"/>
-    <col min="5" max="5" width="21.375" customWidth="1"/>
-    <col min="6" max="6" width="58.625" customWidth="1"/>
+    <col min="2" max="2" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.453125" customWidth="1"/>
+    <col min="4" max="4" width="17.90625" customWidth="1"/>
+    <col min="5" max="5" width="21.36328125" customWidth="1"/>
+    <col min="6" max="6" width="58.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="19" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>20</v>
       </c>
@@ -1057,7 +1057,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1071,7 +1071,7 @@
         <v>45820</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D4" s="1" t="s">
         <v>4</v>
       </c>
@@ -1079,7 +1079,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D5" s="1" t="s">
         <v>5</v>
       </c>
@@ -1087,7 +1087,7 @@
         <v>45820</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
         <v>6</v>
       </c>
@@ -1104,7 +1104,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B8" s="3">
         <v>1</v>
       </c>
@@ -1121,7 +1121,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B9" s="3">
         <v>2</v>
       </c>
@@ -1138,7 +1138,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B10" s="3">
         <v>3</v>
       </c>
@@ -1155,7 +1155,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B11" s="3">
         <v>4</v>
       </c>
@@ -1172,7 +1172,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B12" s="3">
         <v>5</v>
       </c>
@@ -1189,7 +1189,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B13" s="3">
         <v>6</v>
       </c>
@@ -1206,7 +1206,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B14" s="3">
         <v>7</v>
       </c>
@@ -1215,7 +1215,7 @@
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B15" s="3">
         <v>8</v>
       </c>
@@ -1224,7 +1224,7 @@
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B16" s="3">
         <v>9</v>
       </c>
@@ -1233,7 +1233,7 @@
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B17" s="3">
         <v>10</v>
       </c>
@@ -1242,7 +1242,7 @@
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B18" s="3">
         <v>11</v>
       </c>
@@ -1251,7 +1251,7 @@
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B19" s="3">
         <v>12</v>
       </c>
@@ -1260,7 +1260,7 @@
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B20" s="3">
         <v>13</v>
       </c>
@@ -1269,7 +1269,7 @@
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B21" s="3">
         <v>14</v>
       </c>
@@ -1278,7 +1278,7 @@
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B22" s="3">
         <v>15</v>
       </c>
@@ -1287,7 +1287,7 @@
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B23" s="3">
         <v>16</v>
       </c>
@@ -1296,7 +1296,7 @@
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B24" s="3">
         <v>17</v>
       </c>
@@ -1305,7 +1305,7 @@
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B25" s="3">
         <v>18</v>
       </c>
@@ -1314,7 +1314,7 @@
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B26" s="3">
         <v>19</v>
       </c>
@@ -1323,7 +1323,7 @@
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B27" s="3">
         <v>20</v>
       </c>
@@ -1332,7 +1332,7 @@
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B28" s="3">
         <v>21</v>
       </c>
@@ -1341,7 +1341,7 @@
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B29" s="3">
         <v>22</v>
       </c>
@@ -1350,7 +1350,7 @@
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B30" s="3">
         <v>23</v>
       </c>
@@ -1359,7 +1359,7 @@
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B31" s="3">
         <v>24</v>
       </c>
@@ -1368,7 +1368,7 @@
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B32" s="3">
         <v>25</v>
       </c>
@@ -1377,7 +1377,7 @@
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B33" s="3">
         <v>26</v>
       </c>
@@ -1386,7 +1386,7 @@
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B34" s="3">
         <v>27</v>
       </c>
@@ -1395,7 +1395,7 @@
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B35" s="3">
         <v>28</v>
       </c>
@@ -1404,7 +1404,7 @@
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B36" s="3">
         <v>29</v>
       </c>
@@ -1413,7 +1413,7 @@
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B37" s="3">
         <v>30</v>
       </c>
@@ -1422,7 +1422,7 @@
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B38" s="3">
         <v>31</v>
       </c>
@@ -1442,27 +1442,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E99A6B0F-C25F-4EA5-B38A-0940CB4B168C}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
-    </sheetView>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="16.125" customWidth="1"/>
-    <col min="3" max="3" width="19.375" customWidth="1"/>
-    <col min="4" max="4" width="16.25" customWidth="1"/>
-    <col min="5" max="5" width="16.375" customWidth="1"/>
-    <col min="6" max="6" width="9.75" customWidth="1"/>
-    <col min="7" max="7" width="7.25" customWidth="1"/>
-    <col min="8" max="8" width="9.5" customWidth="1"/>
-    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.08984375" customWidth="1"/>
+    <col min="3" max="3" width="19.36328125" customWidth="1"/>
+    <col min="4" max="4" width="16.26953125" customWidth="1"/>
+    <col min="5" max="5" width="16.36328125" customWidth="1"/>
+    <col min="6" max="6" width="9.7265625" customWidth="1"/>
+    <col min="7" max="7" width="7.26953125" customWidth="1"/>
+    <col min="8" max="8" width="9.453125" customWidth="1"/>
+    <col min="9" max="9" width="11.26953125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="45" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A1" s="4"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>20</v>
       </c>
@@ -1476,7 +1474,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1490,7 +1488,7 @@
         <v>45820</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>15</v>
       </c>
@@ -1504,7 +1502,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>16</v>
       </c>
@@ -1518,7 +1516,7 @@
         <v>45820</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -1554,7 +1552,7 @@
         <v>create table user (</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>1</v>
       </c>
@@ -1586,7 +1584,7 @@
         <v>id int ,</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>2</v>
       </c>
@@ -1616,7 +1614,7 @@
         <v>user_name varchar (50),</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>3</v>
       </c>
@@ -1646,7 +1644,7 @@
         <v>password varchar (50),</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>4</v>
       </c>
@@ -1674,7 +1672,7 @@
         <v xml:space="preserve">tenchou_flag int </v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>5</v>
       </c>
@@ -1692,7 +1690,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>6</v>
       </c>
@@ -1710,7 +1708,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>7</v>
       </c>
@@ -1728,7 +1726,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>8</v>
       </c>
@@ -1746,7 +1744,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>9</v>
       </c>
@@ -1764,7 +1762,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>10</v>
       </c>
@@ -1782,7 +1780,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>11</v>
       </c>
@@ -1800,7 +1798,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>12</v>
       </c>
@@ -1818,7 +1816,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>13</v>
       </c>
@@ -1836,7 +1834,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>14</v>
       </c>
@@ -1854,7 +1852,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>15</v>
       </c>
@@ -1872,7 +1870,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>16</v>
       </c>
@@ -1890,7 +1888,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>17</v>
       </c>
@@ -1908,7 +1906,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>18</v>
       </c>
@@ -1926,7 +1924,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>19</v>
       </c>
@@ -1944,7 +1942,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>20</v>
       </c>
@@ -1962,7 +1960,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="L30" t="s">
         <v>19</v>
       </c>
@@ -1977,27 +1975,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD10"/>
-    </sheetView>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="16.125" customWidth="1"/>
-    <col min="3" max="3" width="19.375" customWidth="1"/>
-    <col min="4" max="4" width="16.25" customWidth="1"/>
-    <col min="5" max="5" width="16.375" customWidth="1"/>
-    <col min="6" max="6" width="9.75" customWidth="1"/>
-    <col min="7" max="7" width="7.25" customWidth="1"/>
-    <col min="8" max="8" width="9.5" customWidth="1"/>
-    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="35.875" customWidth="1"/>
+    <col min="2" max="2" width="16.08984375" customWidth="1"/>
+    <col min="3" max="3" width="19.36328125" customWidth="1"/>
+    <col min="4" max="4" width="16.26953125" customWidth="1"/>
+    <col min="5" max="5" width="16.36328125" customWidth="1"/>
+    <col min="6" max="6" width="9.7265625" customWidth="1"/>
+    <col min="7" max="7" width="7.26953125" customWidth="1"/>
+    <col min="8" max="8" width="9.453125" customWidth="1"/>
+    <col min="9" max="9" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="35.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A1" s="4"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>20</v>
       </c>
@@ -2011,7 +2007,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
@@ -2025,7 +2021,7 @@
         <v>45820</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>15</v>
       </c>
@@ -2039,7 +2035,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>16</v>
       </c>
@@ -2053,7 +2049,7 @@
         <v>45820</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -2089,7 +2085,7 @@
         <v>create table shift (</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>1</v>
       </c>
@@ -2119,7 +2115,7 @@
         <v>shift_id int ,</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>2</v>
       </c>
@@ -2145,7 +2141,7 @@
         <v>date date ,</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>3</v>
       </c>
@@ -2169,7 +2165,7 @@
         <v>start int ,</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>4</v>
       </c>
@@ -2193,7 +2189,7 @@
         <v>end int ,</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>5</v>
       </c>
@@ -2219,7 +2215,7 @@
         <v xml:space="preserve">user_id int </v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>6</v>
       </c>
@@ -2237,7 +2233,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>7</v>
       </c>
@@ -2255,7 +2251,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>8</v>
       </c>
@@ -2273,7 +2269,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>9</v>
       </c>
@@ -2291,7 +2287,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>10</v>
       </c>
@@ -2309,7 +2305,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>11</v>
       </c>
@@ -2327,7 +2323,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>12</v>
       </c>
@@ -2345,7 +2341,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>13</v>
       </c>
@@ -2363,7 +2359,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>14</v>
       </c>
@@ -2381,7 +2377,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>15</v>
       </c>
@@ -2399,7 +2395,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>16</v>
       </c>
@@ -2417,7 +2413,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>17</v>
       </c>
@@ -2435,7 +2431,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>18</v>
       </c>
@@ -2453,7 +2449,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>19</v>
       </c>
@@ -2471,7 +2467,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>20</v>
       </c>
@@ -2489,7 +2485,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="L30" t="s">
         <v>19</v>
       </c>
@@ -2504,27 +2500,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79B33EA2-626B-430F-8E94-8B4B16AE7525}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
-    </sheetView>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="16.125" customWidth="1"/>
-    <col min="3" max="3" width="19.375" customWidth="1"/>
-    <col min="4" max="4" width="16.25" customWidth="1"/>
-    <col min="5" max="5" width="16.375" customWidth="1"/>
-    <col min="6" max="6" width="9.75" customWidth="1"/>
-    <col min="7" max="7" width="7.25" customWidth="1"/>
-    <col min="8" max="8" width="9.5" customWidth="1"/>
-    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.875" customWidth="1"/>
+    <col min="2" max="2" width="16.08984375" customWidth="1"/>
+    <col min="3" max="3" width="19.36328125" customWidth="1"/>
+    <col min="4" max="4" width="16.26953125" customWidth="1"/>
+    <col min="5" max="5" width="16.36328125" customWidth="1"/>
+    <col min="6" max="6" width="9.7265625" customWidth="1"/>
+    <col min="7" max="7" width="7.26953125" customWidth="1"/>
+    <col min="8" max="8" width="9.453125" customWidth="1"/>
+    <col min="9" max="9" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A1" s="4"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>20</v>
       </c>
@@ -2538,7 +2532,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
@@ -2552,7 +2546,7 @@
         <v>45820</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>15</v>
       </c>
@@ -2566,7 +2560,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>16</v>
       </c>
@@ -2580,7 +2574,7 @@
         <v>45820</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -2616,7 +2610,7 @@
         <v>create table event (</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>1</v>
       </c>
@@ -2644,7 +2638,7 @@
         <v>date date ,</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>2</v>
       </c>
@@ -2668,7 +2662,7 @@
         <v>start int ,</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>3</v>
       </c>
@@ -2692,7 +2686,7 @@
         <v>end int ,</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>4</v>
       </c>
@@ -2718,7 +2712,7 @@
         <v xml:space="preserve">enevt_id int </v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>5</v>
       </c>
@@ -2736,7 +2730,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>6</v>
       </c>
@@ -2754,7 +2748,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>7</v>
       </c>
@@ -2772,7 +2766,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>8</v>
       </c>
@@ -2790,7 +2784,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>9</v>
       </c>
@@ -2808,7 +2802,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>10</v>
       </c>
@@ -2826,7 +2820,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>11</v>
       </c>
@@ -2844,7 +2838,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>12</v>
       </c>
@@ -2862,7 +2856,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>13</v>
       </c>
@@ -2880,7 +2874,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>14</v>
       </c>
@@ -2898,7 +2892,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>15</v>
       </c>
@@ -2916,7 +2910,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>16</v>
       </c>
@@ -2934,7 +2928,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>17</v>
       </c>
@@ -2952,7 +2946,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>18</v>
       </c>
@@ -2970,7 +2964,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>19</v>
       </c>
@@ -2988,7 +2982,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>20</v>
       </c>
@@ -3006,7 +3000,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="L30" t="s">
         <v>19</v>
       </c>
@@ -3021,27 +3015,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{034BC70C-75C3-4172-8651-A4CAADD718B7}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
-    </sheetView>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="16.125" customWidth="1"/>
-    <col min="3" max="3" width="19.375" customWidth="1"/>
-    <col min="4" max="4" width="16.25" customWidth="1"/>
-    <col min="5" max="5" width="16.375" customWidth="1"/>
-    <col min="6" max="6" width="9.75" customWidth="1"/>
-    <col min="7" max="7" width="7.25" customWidth="1"/>
-    <col min="8" max="8" width="9.5" customWidth="1"/>
-    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.875" customWidth="1"/>
+    <col min="2" max="2" width="16.08984375" customWidth="1"/>
+    <col min="3" max="3" width="19.36328125" customWidth="1"/>
+    <col min="4" max="4" width="16.26953125" customWidth="1"/>
+    <col min="5" max="5" width="16.36328125" customWidth="1"/>
+    <col min="6" max="6" width="9.7265625" customWidth="1"/>
+    <col min="7" max="7" width="7.26953125" customWidth="1"/>
+    <col min="8" max="8" width="9.453125" customWidth="1"/>
+    <col min="9" max="9" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A1" s="4"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>20</v>
       </c>
@@ -3055,7 +3047,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
@@ -3069,7 +3061,7 @@
         <v>45820</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>15</v>
       </c>
@@ -3083,7 +3075,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>16</v>
       </c>
@@ -3097,7 +3089,7 @@
         <v>45820</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -3133,7 +3125,7 @@
         <v>create table event_button (</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>1</v>
       </c>
@@ -3165,7 +3157,7 @@
         <v>button_id int ,</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>2</v>
       </c>
@@ -3195,7 +3187,7 @@
         <v>button_name varchar (8)</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>3</v>
       </c>
@@ -3213,7 +3205,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>4</v>
       </c>
@@ -3231,7 +3223,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>5</v>
       </c>
@@ -3249,7 +3241,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>6</v>
       </c>
@@ -3267,7 +3259,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>7</v>
       </c>
@@ -3285,7 +3277,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>8</v>
       </c>
@@ -3303,7 +3295,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>9</v>
       </c>
@@ -3321,7 +3313,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>10</v>
       </c>
@@ -3339,7 +3331,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>11</v>
       </c>
@@ -3357,7 +3349,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>12</v>
       </c>
@@ -3375,7 +3367,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>13</v>
       </c>
@@ -3393,7 +3385,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>14</v>
       </c>
@@ -3411,7 +3403,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>15</v>
       </c>
@@ -3429,7 +3421,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>16</v>
       </c>
@@ -3447,7 +3439,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>17</v>
       </c>
@@ -3465,7 +3457,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>18</v>
       </c>
@@ -3483,7 +3475,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>19</v>
       </c>
@@ -3501,7 +3493,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>20</v>
       </c>
@@ -3519,7 +3511,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="L30" t="s">
         <v>19</v>
       </c>
@@ -3534,27 +3526,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D60B1F0D-DEC1-43A6-98A1-7AE8A7B94815}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
-    </sheetView>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="16.125" customWidth="1"/>
-    <col min="3" max="3" width="19.375" customWidth="1"/>
-    <col min="4" max="4" width="16.25" customWidth="1"/>
-    <col min="5" max="5" width="16.375" customWidth="1"/>
-    <col min="6" max="6" width="9.75" customWidth="1"/>
-    <col min="7" max="7" width="7.25" customWidth="1"/>
-    <col min="8" max="8" width="9.5" customWidth="1"/>
-    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.875" customWidth="1"/>
+    <col min="2" max="2" width="16.08984375" customWidth="1"/>
+    <col min="3" max="3" width="19.36328125" customWidth="1"/>
+    <col min="4" max="4" width="16.26953125" customWidth="1"/>
+    <col min="5" max="5" width="16.36328125" customWidth="1"/>
+    <col min="6" max="6" width="9.7265625" customWidth="1"/>
+    <col min="7" max="7" width="7.26953125" customWidth="1"/>
+    <col min="8" max="8" width="9.453125" customWidth="1"/>
+    <col min="9" max="9" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A1" s="4"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>20</v>
       </c>
@@ -3568,7 +3558,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
@@ -3582,7 +3572,7 @@
         <v>45820</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>15</v>
       </c>
@@ -3596,7 +3586,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>16</v>
       </c>
@@ -3610,7 +3600,7 @@
         <v>45820</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -3646,7 +3636,7 @@
         <v>create table manual (</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>1</v>
       </c>
@@ -3674,7 +3664,7 @@
         <v>manual_file varchar (65534),</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>2</v>
       </c>
@@ -3702,7 +3692,7 @@
         <v xml:space="preserve">importance int </v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>3</v>
       </c>
@@ -3720,7 +3710,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>4</v>
       </c>
@@ -3738,7 +3728,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>5</v>
       </c>
@@ -3756,7 +3746,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>6</v>
       </c>
@@ -3774,7 +3764,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>7</v>
       </c>
@@ -3792,7 +3782,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>8</v>
       </c>
@@ -3810,7 +3800,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>9</v>
       </c>
@@ -3828,7 +3818,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>10</v>
       </c>
@@ -3846,7 +3836,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>11</v>
       </c>
@@ -3864,7 +3854,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>12</v>
       </c>
@@ -3882,7 +3872,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>13</v>
       </c>
@@ -3900,7 +3890,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>14</v>
       </c>
@@ -3918,7 +3908,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>15</v>
       </c>
@@ -3936,7 +3926,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>16</v>
       </c>
@@ -3954,7 +3944,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>17</v>
       </c>
@@ -3972,7 +3962,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>18</v>
       </c>
@@ -3990,7 +3980,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>19</v>
       </c>
@@ -4008,7 +3998,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>20</v>
       </c>
@@ -4026,7 +4016,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="L30" t="s">
         <v>19</v>
       </c>
@@ -4041,27 +4031,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D0D38B3-62B0-4DBD-9A4D-147ECC93EA1C}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
-    </sheetView>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="16.125" customWidth="1"/>
-    <col min="3" max="3" width="19.375" customWidth="1"/>
-    <col min="4" max="4" width="16.25" customWidth="1"/>
-    <col min="5" max="5" width="16.375" customWidth="1"/>
-    <col min="6" max="6" width="9.75" customWidth="1"/>
-    <col min="7" max="7" width="7.25" customWidth="1"/>
-    <col min="8" max="8" width="9.5" customWidth="1"/>
-    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.875" customWidth="1"/>
+    <col min="2" max="2" width="16.08984375" customWidth="1"/>
+    <col min="3" max="3" width="19.36328125" customWidth="1"/>
+    <col min="4" max="4" width="16.26953125" customWidth="1"/>
+    <col min="5" max="5" width="16.36328125" customWidth="1"/>
+    <col min="6" max="6" width="9.7265625" customWidth="1"/>
+    <col min="7" max="7" width="7.26953125" customWidth="1"/>
+    <col min="8" max="8" width="9.453125" customWidth="1"/>
+    <col min="9" max="9" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A1" s="4"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>20</v>
       </c>
@@ -4075,7 +4063,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
@@ -4089,7 +4077,7 @@
         <v>45820</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>15</v>
       </c>
@@ -4101,7 +4089,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>16</v>
       </c>
@@ -4113,7 +4101,7 @@
         <v>45820</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -4149,7 +4137,7 @@
         <v>create table  (</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>1</v>
       </c>
@@ -4179,7 +4167,7 @@
         <v>regist_pw varchar (50)</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>2</v>
       </c>
@@ -4197,7 +4185,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>3</v>
       </c>
@@ -4215,7 +4203,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>4</v>
       </c>
@@ -4233,7 +4221,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>5</v>
       </c>
@@ -4251,7 +4239,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>6</v>
       </c>
@@ -4269,7 +4257,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>7</v>
       </c>
@@ -4287,7 +4275,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>8</v>
       </c>
@@ -4305,7 +4293,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>9</v>
       </c>
@@ -4323,7 +4311,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>10</v>
       </c>
@@ -4341,7 +4329,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>11</v>
       </c>
@@ -4359,7 +4347,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>12</v>
       </c>
@@ -4377,7 +4365,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>13</v>
       </c>
@@ -4395,7 +4383,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>14</v>
       </c>
@@ -4413,7 +4401,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>15</v>
       </c>
@@ -4431,7 +4419,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>16</v>
       </c>
@@ -4449,7 +4437,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>17</v>
       </c>
@@ -4467,7 +4455,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>18</v>
       </c>
@@ -4485,7 +4473,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>19</v>
       </c>
@@ -4503,7 +4491,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>20</v>
       </c>
@@ -4521,7 +4509,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="L30" t="s">
         <v>19</v>
       </c>

--- a/documents/外部設計/061225_データベース設計書_落穂ひろい.xlsx
+++ b/documents/外部設計/061225_データベース設計書_落穂ひろい.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\plusdojo2025\A5\documents\外部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC9CFA66-6DE0-436B-9B41-52443DA12C94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00F35FC9-8EC6-4248-9BBC-3C6383EB1D19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3645" yWindow="12705" windowWidth="22890" windowHeight="14955" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13000" yWindow="1510" windowWidth="21710" windowHeight="12260" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="88">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -596,6 +596,27 @@
   </si>
   <si>
     <t>1=Green  2=Yellow  3=Red</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>梶川凌</t>
+    <rPh sb="0" eb="2">
+      <t>カジカワ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>リョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アップロードの日付</t>
+    <rPh sb="7" eb="9">
+      <t>ヒヅケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>date_up</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1025,25 +1046,25 @@
   </sheetPr>
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4:E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="12.36328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.453125" customWidth="1"/>
-    <col min="4" max="4" width="17.90625" customWidth="1"/>
-    <col min="5" max="5" width="21.36328125" customWidth="1"/>
-    <col min="6" max="6" width="58.6328125" customWidth="1"/>
+    <col min="2" max="2" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.5" customWidth="1"/>
+    <col min="4" max="4" width="17.875" customWidth="1"/>
+    <col min="5" max="5" width="21.375" customWidth="1"/>
+    <col min="6" max="6" width="58.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
         <v>20</v>
       </c>
@@ -1057,7 +1078,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1071,23 +1092,23 @@
         <v>45820</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="D4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="D5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E5" s="5">
-        <v>45820</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+        <v>45824</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B7" s="1" t="s">
         <v>6</v>
       </c>
@@ -1104,7 +1125,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B8" s="3">
         <v>1</v>
       </c>
@@ -1121,7 +1142,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B9" s="3">
         <v>2</v>
       </c>
@@ -1138,7 +1159,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B10" s="3">
         <v>3</v>
       </c>
@@ -1155,7 +1176,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B11" s="3">
         <v>4</v>
       </c>
@@ -1172,7 +1193,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B12" s="3">
         <v>5</v>
       </c>
@@ -1189,7 +1210,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B13" s="3">
         <v>6</v>
       </c>
@@ -1206,7 +1227,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B14" s="3">
         <v>7</v>
       </c>
@@ -1215,7 +1236,7 @@
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B15" s="3">
         <v>8</v>
       </c>
@@ -1224,7 +1245,7 @@
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B16" s="3">
         <v>9</v>
       </c>
@@ -1233,7 +1254,7 @@
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B17" s="3">
         <v>10</v>
       </c>
@@ -1242,7 +1263,7 @@
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B18" s="3">
         <v>11</v>
       </c>
@@ -1251,7 +1272,7 @@
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B19" s="3">
         <v>12</v>
       </c>
@@ -1260,7 +1281,7 @@
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B20" s="3">
         <v>13</v>
       </c>
@@ -1269,7 +1290,7 @@
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B21" s="3">
         <v>14</v>
       </c>
@@ -1278,7 +1299,7 @@
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B22" s="3">
         <v>15</v>
       </c>
@@ -1287,7 +1308,7 @@
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B23" s="3">
         <v>16</v>
       </c>
@@ -1296,7 +1317,7 @@
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B24" s="3">
         <v>17</v>
       </c>
@@ -1305,7 +1326,7 @@
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B25" s="3">
         <v>18</v>
       </c>
@@ -1314,7 +1335,7 @@
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B26" s="3">
         <v>19</v>
       </c>
@@ -1323,7 +1344,7 @@
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B27" s="3">
         <v>20</v>
       </c>
@@ -1332,7 +1353,7 @@
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B28" s="3">
         <v>21</v>
       </c>
@@ -1341,7 +1362,7 @@
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B29" s="3">
         <v>22</v>
       </c>
@@ -1350,7 +1371,7 @@
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B30" s="3">
         <v>23</v>
       </c>
@@ -1359,7 +1380,7 @@
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B31" s="3">
         <v>24</v>
       </c>
@@ -1368,7 +1389,7 @@
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B32" s="3">
         <v>25</v>
       </c>
@@ -1377,7 +1398,7 @@
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B33" s="3">
         <v>26</v>
       </c>
@@ -1386,7 +1407,7 @@
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B34" s="3">
         <v>27</v>
       </c>
@@ -1395,7 +1416,7 @@
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B35" s="3">
         <v>28</v>
       </c>
@@ -1404,7 +1425,7 @@
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B36" s="3">
         <v>29</v>
       </c>
@@ -1413,7 +1434,7 @@
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B37" s="3">
         <v>30</v>
       </c>
@@ -1422,7 +1443,7 @@
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B38" s="3">
         <v>31</v>
       </c>
@@ -1442,25 +1463,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E99A6B0F-C25F-4EA5-B38A-0940CB4B168C}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4:E5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="16.08984375" customWidth="1"/>
-    <col min="3" max="3" width="19.36328125" customWidth="1"/>
-    <col min="4" max="4" width="16.26953125" customWidth="1"/>
-    <col min="5" max="5" width="16.36328125" customWidth="1"/>
-    <col min="6" max="6" width="9.7265625" customWidth="1"/>
-    <col min="7" max="7" width="7.26953125" customWidth="1"/>
-    <col min="8" max="8" width="9.453125" customWidth="1"/>
-    <col min="9" max="9" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.125" customWidth="1"/>
+    <col min="3" max="3" width="19.375" customWidth="1"/>
+    <col min="4" max="4" width="16.25" customWidth="1"/>
+    <col min="5" max="5" width="16.375" customWidth="1"/>
+    <col min="6" max="6" width="9.75" customWidth="1"/>
+    <col min="7" max="7" width="7.25" customWidth="1"/>
+    <col min="8" max="8" width="9.5" customWidth="1"/>
+    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="45" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A1" s="4"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
         <v>20</v>
       </c>
@@ -1474,7 +1497,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1488,7 +1511,7 @@
         <v>45820</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="s">
         <v>15</v>
       </c>
@@ -1499,10 +1522,10 @@
         <v>4</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B5" s="1" t="s">
         <v>16</v>
       </c>
@@ -1513,10 +1536,10 @@
         <v>5</v>
       </c>
       <c r="E5" s="5">
-        <v>45820</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+        <v>45824</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -1552,7 +1575,7 @@
         <v>create table user (</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
         <v>1</v>
       </c>
@@ -1584,7 +1607,7 @@
         <v>id int ,</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
         <v>2</v>
       </c>
@@ -1614,7 +1637,7 @@
         <v>user_name varchar (50),</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
         <v>3</v>
       </c>
@@ -1644,7 +1667,7 @@
         <v>password varchar (50),</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
         <v>4</v>
       </c>
@@ -1672,7 +1695,7 @@
         <v xml:space="preserve">tenchou_flag int </v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
         <v>5</v>
       </c>
@@ -1690,7 +1713,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15" s="3">
         <v>6</v>
       </c>
@@ -1708,7 +1731,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
         <v>7</v>
       </c>
@@ -1726,7 +1749,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A17" s="3">
         <v>8</v>
       </c>
@@ -1744,7 +1767,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A18" s="3">
         <v>9</v>
       </c>
@@ -1762,7 +1785,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A19" s="3">
         <v>10</v>
       </c>
@@ -1780,7 +1803,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A20" s="3">
         <v>11</v>
       </c>
@@ -1798,7 +1821,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A21" s="3">
         <v>12</v>
       </c>
@@ -1816,7 +1839,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A22" s="3">
         <v>13</v>
       </c>
@@ -1834,7 +1857,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A23" s="3">
         <v>14</v>
       </c>
@@ -1852,7 +1875,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A24" s="3">
         <v>15</v>
       </c>
@@ -1870,7 +1893,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A25" s="3">
         <v>16</v>
       </c>
@@ -1888,7 +1911,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A26" s="3">
         <v>17</v>
       </c>
@@ -1906,7 +1929,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A27" s="3">
         <v>18</v>
       </c>
@@ -1924,7 +1947,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A28" s="3">
         <v>19</v>
       </c>
@@ -1942,7 +1965,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A29" s="3">
         <v>20</v>
       </c>
@@ -1960,7 +1983,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
       <c r="L30" t="s">
         <v>19</v>
       </c>
@@ -1975,25 +1998,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4:E5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="16.08984375" customWidth="1"/>
-    <col min="3" max="3" width="19.36328125" customWidth="1"/>
-    <col min="4" max="4" width="16.26953125" customWidth="1"/>
-    <col min="5" max="5" width="16.36328125" customWidth="1"/>
-    <col min="6" max="6" width="9.7265625" customWidth="1"/>
-    <col min="7" max="7" width="7.26953125" customWidth="1"/>
-    <col min="8" max="8" width="9.453125" customWidth="1"/>
-    <col min="9" max="9" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="35.90625" customWidth="1"/>
+    <col min="2" max="2" width="16.125" customWidth="1"/>
+    <col min="3" max="3" width="19.375" customWidth="1"/>
+    <col min="4" max="4" width="16.25" customWidth="1"/>
+    <col min="5" max="5" width="16.375" customWidth="1"/>
+    <col min="6" max="6" width="9.75" customWidth="1"/>
+    <col min="7" max="7" width="7.25" customWidth="1"/>
+    <col min="8" max="8" width="9.5" customWidth="1"/>
+    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="35.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A1" s="4"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
         <v>20</v>
       </c>
@@ -2007,7 +2032,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
@@ -2021,7 +2046,7 @@
         <v>45820</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="s">
         <v>15</v>
       </c>
@@ -2032,10 +2057,10 @@
         <v>4</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B5" s="1" t="s">
         <v>16</v>
       </c>
@@ -2046,10 +2071,10 @@
         <v>5</v>
       </c>
       <c r="E5" s="5">
-        <v>45820</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+        <v>45824</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -2085,7 +2110,7 @@
         <v>create table shift (</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
         <v>1</v>
       </c>
@@ -2115,7 +2140,7 @@
         <v>shift_id int ,</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
         <v>2</v>
       </c>
@@ -2141,7 +2166,7 @@
         <v>date date ,</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
         <v>3</v>
       </c>
@@ -2165,7 +2190,7 @@
         <v>start int ,</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
         <v>4</v>
       </c>
@@ -2189,7 +2214,7 @@
         <v>end int ,</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
         <v>5</v>
       </c>
@@ -2215,7 +2240,7 @@
         <v xml:space="preserve">user_id int </v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15" s="3">
         <v>6</v>
       </c>
@@ -2233,7 +2258,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
         <v>7</v>
       </c>
@@ -2251,7 +2276,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A17" s="3">
         <v>8</v>
       </c>
@@ -2269,7 +2294,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A18" s="3">
         <v>9</v>
       </c>
@@ -2287,7 +2312,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A19" s="3">
         <v>10</v>
       </c>
@@ -2305,7 +2330,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A20" s="3">
         <v>11</v>
       </c>
@@ -2323,7 +2348,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A21" s="3">
         <v>12</v>
       </c>
@@ -2341,7 +2366,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A22" s="3">
         <v>13</v>
       </c>
@@ -2359,7 +2384,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A23" s="3">
         <v>14</v>
       </c>
@@ -2377,7 +2402,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A24" s="3">
         <v>15</v>
       </c>
@@ -2395,7 +2420,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A25" s="3">
         <v>16</v>
       </c>
@@ -2413,7 +2438,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A26" s="3">
         <v>17</v>
       </c>
@@ -2431,7 +2456,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A27" s="3">
         <v>18</v>
       </c>
@@ -2449,7 +2474,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A28" s="3">
         <v>19</v>
       </c>
@@ -2467,7 +2492,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A29" s="3">
         <v>20</v>
       </c>
@@ -2485,7 +2510,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
       <c r="L30" t="s">
         <v>19</v>
       </c>
@@ -2500,25 +2525,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79B33EA2-626B-430F-8E94-8B4B16AE7525}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="16.08984375" customWidth="1"/>
-    <col min="3" max="3" width="19.36328125" customWidth="1"/>
-    <col min="4" max="4" width="16.26953125" customWidth="1"/>
-    <col min="5" max="5" width="16.36328125" customWidth="1"/>
-    <col min="6" max="6" width="9.7265625" customWidth="1"/>
-    <col min="7" max="7" width="7.26953125" customWidth="1"/>
-    <col min="8" max="8" width="9.453125" customWidth="1"/>
-    <col min="9" max="9" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.90625" customWidth="1"/>
+    <col min="2" max="2" width="16.125" customWidth="1"/>
+    <col min="3" max="3" width="19.375" customWidth="1"/>
+    <col min="4" max="4" width="16.25" customWidth="1"/>
+    <col min="5" max="5" width="16.375" customWidth="1"/>
+    <col min="6" max="6" width="9.75" customWidth="1"/>
+    <col min="7" max="7" width="7.25" customWidth="1"/>
+    <col min="8" max="8" width="9.5" customWidth="1"/>
+    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A1" s="4"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
         <v>20</v>
       </c>
@@ -2532,7 +2559,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
@@ -2546,7 +2573,7 @@
         <v>45820</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="s">
         <v>15</v>
       </c>
@@ -2557,10 +2584,10 @@
         <v>4</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B5" s="1" t="s">
         <v>16</v>
       </c>
@@ -2571,10 +2598,10 @@
         <v>5</v>
       </c>
       <c r="E5" s="5">
-        <v>45820</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+        <v>45824</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -2610,7 +2637,7 @@
         <v>create table event (</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
         <v>1</v>
       </c>
@@ -2638,7 +2665,7 @@
         <v>date date ,</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
         <v>2</v>
       </c>
@@ -2662,7 +2689,7 @@
         <v>start int ,</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
         <v>3</v>
       </c>
@@ -2686,7 +2713,7 @@
         <v>end int ,</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
         <v>4</v>
       </c>
@@ -2712,7 +2739,7 @@
         <v xml:space="preserve">enevt_id int </v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
         <v>5</v>
       </c>
@@ -2730,7 +2757,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15" s="3">
         <v>6</v>
       </c>
@@ -2748,7 +2775,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
         <v>7</v>
       </c>
@@ -2766,7 +2793,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A17" s="3">
         <v>8</v>
       </c>
@@ -2784,7 +2811,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A18" s="3">
         <v>9</v>
       </c>
@@ -2802,7 +2829,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A19" s="3">
         <v>10</v>
       </c>
@@ -2820,7 +2847,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A20" s="3">
         <v>11</v>
       </c>
@@ -2838,7 +2865,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A21" s="3">
         <v>12</v>
       </c>
@@ -2856,7 +2883,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A22" s="3">
         <v>13</v>
       </c>
@@ -2874,7 +2901,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A23" s="3">
         <v>14</v>
       </c>
@@ -2892,7 +2919,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A24" s="3">
         <v>15</v>
       </c>
@@ -2910,7 +2937,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A25" s="3">
         <v>16</v>
       </c>
@@ -2928,7 +2955,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A26" s="3">
         <v>17</v>
       </c>
@@ -2946,7 +2973,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A27" s="3">
         <v>18</v>
       </c>
@@ -2964,7 +2991,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A28" s="3">
         <v>19</v>
       </c>
@@ -2982,7 +3009,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A29" s="3">
         <v>20</v>
       </c>
@@ -3000,7 +3027,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
       <c r="L30" t="s">
         <v>19</v>
       </c>
@@ -3015,25 +3042,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{034BC70C-75C3-4172-8651-A4CAADD718B7}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="16.08984375" customWidth="1"/>
-    <col min="3" max="3" width="19.36328125" customWidth="1"/>
-    <col min="4" max="4" width="16.26953125" customWidth="1"/>
-    <col min="5" max="5" width="16.36328125" customWidth="1"/>
-    <col min="6" max="6" width="9.7265625" customWidth="1"/>
-    <col min="7" max="7" width="7.26953125" customWidth="1"/>
-    <col min="8" max="8" width="9.453125" customWidth="1"/>
-    <col min="9" max="9" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.90625" customWidth="1"/>
+    <col min="2" max="2" width="16.125" customWidth="1"/>
+    <col min="3" max="3" width="19.375" customWidth="1"/>
+    <col min="4" max="4" width="16.25" customWidth="1"/>
+    <col min="5" max="5" width="16.375" customWidth="1"/>
+    <col min="6" max="6" width="9.75" customWidth="1"/>
+    <col min="7" max="7" width="7.25" customWidth="1"/>
+    <col min="8" max="8" width="9.5" customWidth="1"/>
+    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A1" s="4"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
         <v>20</v>
       </c>
@@ -3047,7 +3076,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
@@ -3061,7 +3090,7 @@
         <v>45820</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="s">
         <v>15</v>
       </c>
@@ -3072,10 +3101,10 @@
         <v>4</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B5" s="1" t="s">
         <v>16</v>
       </c>
@@ -3086,10 +3115,10 @@
         <v>5</v>
       </c>
       <c r="E5" s="5">
-        <v>45820</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+        <v>45824</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -3125,7 +3154,7 @@
         <v>create table event_button (</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
         <v>1</v>
       </c>
@@ -3157,7 +3186,7 @@
         <v>button_id int ,</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
         <v>2</v>
       </c>
@@ -3187,7 +3216,7 @@
         <v>button_name varchar (8)</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
         <v>3</v>
       </c>
@@ -3205,7 +3234,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
         <v>4</v>
       </c>
@@ -3223,7 +3252,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
         <v>5</v>
       </c>
@@ -3241,7 +3270,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15" s="3">
         <v>6</v>
       </c>
@@ -3259,7 +3288,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
         <v>7</v>
       </c>
@@ -3277,7 +3306,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A17" s="3">
         <v>8</v>
       </c>
@@ -3295,7 +3324,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A18" s="3">
         <v>9</v>
       </c>
@@ -3313,7 +3342,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A19" s="3">
         <v>10</v>
       </c>
@@ -3331,7 +3360,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A20" s="3">
         <v>11</v>
       </c>
@@ -3349,7 +3378,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A21" s="3">
         <v>12</v>
       </c>
@@ -3367,7 +3396,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A22" s="3">
         <v>13</v>
       </c>
@@ -3385,7 +3414,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A23" s="3">
         <v>14</v>
       </c>
@@ -3403,7 +3432,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A24" s="3">
         <v>15</v>
       </c>
@@ -3421,7 +3450,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A25" s="3">
         <v>16</v>
       </c>
@@ -3439,7 +3468,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A26" s="3">
         <v>17</v>
       </c>
@@ -3457,7 +3486,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A27" s="3">
         <v>18</v>
       </c>
@@ -3475,7 +3504,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A28" s="3">
         <v>19</v>
       </c>
@@ -3493,7 +3522,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A29" s="3">
         <v>20</v>
       </c>
@@ -3511,7 +3540,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
       <c r="L30" t="s">
         <v>19</v>
       </c>
@@ -3526,25 +3555,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D60B1F0D-DEC1-43A6-98A1-7AE8A7B94815}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="16.08984375" customWidth="1"/>
-    <col min="3" max="3" width="19.36328125" customWidth="1"/>
-    <col min="4" max="4" width="16.26953125" customWidth="1"/>
-    <col min="5" max="5" width="16.36328125" customWidth="1"/>
-    <col min="6" max="6" width="9.7265625" customWidth="1"/>
-    <col min="7" max="7" width="7.26953125" customWidth="1"/>
-    <col min="8" max="8" width="9.453125" customWidth="1"/>
-    <col min="9" max="9" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.90625" customWidth="1"/>
+    <col min="2" max="2" width="16.125" customWidth="1"/>
+    <col min="3" max="3" width="19.375" customWidth="1"/>
+    <col min="4" max="4" width="16.25" customWidth="1"/>
+    <col min="5" max="5" width="16.375" customWidth="1"/>
+    <col min="6" max="6" width="9.75" customWidth="1"/>
+    <col min="7" max="7" width="7.25" customWidth="1"/>
+    <col min="8" max="8" width="9.5" customWidth="1"/>
+    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A1" s="4"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
         <v>20</v>
       </c>
@@ -3558,7 +3589,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
@@ -3572,7 +3603,7 @@
         <v>45820</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="s">
         <v>15</v>
       </c>
@@ -3583,10 +3614,10 @@
         <v>4</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B5" s="1" t="s">
         <v>16</v>
       </c>
@@ -3597,10 +3628,10 @@
         <v>5</v>
       </c>
       <c r="E5" s="5">
-        <v>45820</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+        <v>45824</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -3636,7 +3667,7 @@
         <v>create table manual (</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
         <v>1</v>
       </c>
@@ -3652,7 +3683,9 @@
       <c r="E10" s="3">
         <v>65534</v>
       </c>
-      <c r="F10" s="3"/>
+      <c r="F10" s="6" t="s">
+        <v>52</v>
+      </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -3664,7 +3697,7 @@
         <v>manual_file varchar (65534),</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
         <v>2</v>
       </c>
@@ -3689,10 +3722,511 @@
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">importance int </v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+        <v>importance int ,</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A12" s="3">
+        <v>3</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="L12" t="str">
+        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">date_up date </v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A13" s="3">
+        <v>4</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="L13" t="str">
+        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A14" s="3">
+        <v>5</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="L14" t="str">
+        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A15" s="3">
+        <v>6</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="L15" t="str">
+        <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A16" s="3">
+        <v>7</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="L16" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A17" s="3">
+        <v>8</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="L17" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A18" s="3">
+        <v>9</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="L18" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A19" s="3">
+        <v>10</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="L19" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A20" s="3">
+        <v>11</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="L20" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A21" s="3">
+        <v>12</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="L21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A22" s="3">
+        <v>13</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="L22" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A23" s="3">
+        <v>14</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="L23" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A24" s="3">
+        <v>15</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="L24" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A25" s="3">
+        <v>16</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="L25" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A26" s="3">
+        <v>17</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="L26" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A27" s="3">
+        <v>18</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="L27" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A28" s="3">
+        <v>19</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="L28" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A29" s="3">
+        <v>20</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="L29" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="L30" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D0D38B3-62B0-4DBD-9A4D-147ECC93EA1C}">
+  <dimension ref="A1:L30"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="18" customWidth="1"/>
+    <col min="3" max="3" width="19.375" customWidth="1"/>
+    <col min="4" max="4" width="16.25" customWidth="1"/>
+    <col min="5" max="5" width="16.375" customWidth="1"/>
+    <col min="6" max="6" width="9.75" customWidth="1"/>
+    <col min="7" max="7" width="7.25" customWidth="1"/>
+    <col min="8" max="8" width="9.5" customWidth="1"/>
+    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A1" s="4"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="5">
+        <v>45820</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="5">
+        <v>45824</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L9" t="str">
+        <f>"create table "&amp;C5&amp;" ("</f>
+        <v>create table  (</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A10" s="3">
+        <v>1</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" s="3">
+        <v>50</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="L10" t="str">
+        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
+        <v>regist_pw varchar (50)</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A11" s="3">
+        <v>2</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="L11" t="str">
+        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
         <v>3</v>
       </c>
@@ -3710,7 +4244,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
         <v>4</v>
       </c>
@@ -3728,7 +4262,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
         <v>5</v>
       </c>
@@ -3746,7 +4280,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15" s="3">
         <v>6</v>
       </c>
@@ -3764,7 +4298,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
         <v>7</v>
       </c>
@@ -3782,7 +4316,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A17" s="3">
         <v>8</v>
       </c>
@@ -3800,7 +4334,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A18" s="3">
         <v>9</v>
       </c>
@@ -3818,7 +4352,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A19" s="3">
         <v>10</v>
       </c>
@@ -3836,7 +4370,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A20" s="3">
         <v>11</v>
       </c>
@@ -3854,7 +4388,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A21" s="3">
         <v>12</v>
       </c>
@@ -3872,7 +4406,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A22" s="3">
         <v>13</v>
       </c>
@@ -3890,7 +4424,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A23" s="3">
         <v>14</v>
       </c>
@@ -3908,7 +4442,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A24" s="3">
         <v>15</v>
       </c>
@@ -3926,7 +4460,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A25" s="3">
         <v>16</v>
       </c>
@@ -3944,7 +4478,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A26" s="3">
         <v>17</v>
       </c>
@@ -3962,7 +4496,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A27" s="3">
         <v>18</v>
       </c>
@@ -3980,7 +4514,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A28" s="3">
         <v>19</v>
       </c>
@@ -3998,7 +4532,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A29" s="3">
         <v>20</v>
       </c>
@@ -4016,500 +4550,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="L30" t="s">
-        <v>19</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D0D38B3-62B0-4DBD-9A4D-147ECC93EA1C}">
-  <dimension ref="A1:L30"/>
-  <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="16.08984375" customWidth="1"/>
-    <col min="3" max="3" width="19.36328125" customWidth="1"/>
-    <col min="4" max="4" width="16.26953125" customWidth="1"/>
-    <col min="5" max="5" width="16.36328125" customWidth="1"/>
-    <col min="6" max="6" width="9.7265625" customWidth="1"/>
-    <col min="7" max="7" width="7.26953125" customWidth="1"/>
-    <col min="8" max="8" width="9.453125" customWidth="1"/>
-    <col min="9" max="9" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.90625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A1" s="4"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="5">
-        <v>45820</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="5">
-        <v>45820</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L9" t="str">
-        <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table  (</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
-        <v>1</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E10" s="3">
-        <v>50</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="L10" t="str">
-        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v>regist_pw varchar (50)</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="3">
-        <v>2</v>
-      </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="L11" t="str">
-        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="3">
-        <v>3</v>
-      </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="L12" t="str">
-        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="3">
-        <v>4</v>
-      </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="L13" t="str">
-        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="3">
-        <v>5</v>
-      </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="L14" t="str">
-        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="3">
-        <v>6</v>
-      </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="L15" t="str">
-        <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="3">
-        <v>7</v>
-      </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="L16" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" s="3">
-        <v>8</v>
-      </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="L17" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" s="3">
-        <v>9</v>
-      </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="L18" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" s="3">
-        <v>10</v>
-      </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="L19" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" s="3">
-        <v>11</v>
-      </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="L20" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" s="3">
-        <v>12</v>
-      </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="L21" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A22" s="3">
-        <v>13</v>
-      </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="L22" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23" s="3">
-        <v>14</v>
-      </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="L23" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" s="3">
-        <v>15</v>
-      </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="L24" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" s="3">
-        <v>16</v>
-      </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="L25" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A26" s="3">
-        <v>17</v>
-      </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="L26" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A27" s="3">
-        <v>18</v>
-      </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="L27" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A28" s="3">
-        <v>19</v>
-      </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="L28" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A29" s="3">
-        <v>20</v>
-      </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="L29" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
       <c r="L30" t="s">
         <v>19</v>
       </c>

--- a/documents/外部設計/061225_データベース設計書_落穂ひろい.xlsx
+++ b/documents/外部設計/061225_データベース設計書_落穂ひろい.xlsx
@@ -8,18 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\plusdojo2025\A5\documents\外部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00F35FC9-8EC6-4248-9BBC-3C6383EB1D19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2122E426-8C1E-40B8-B9C3-402ADB2A82D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13000" yWindow="1510" windowWidth="21710" windowHeight="12260" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15190" yWindow="7610" windowWidth="21710" windowHeight="12260" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
     <sheet name="user" sheetId="5" r:id="rId2"/>
     <sheet name="shift" sheetId="2" r:id="rId3"/>
     <sheet name="event" sheetId="6" r:id="rId4"/>
-    <sheet name="event_button" sheetId="8" r:id="rId5"/>
+    <sheet name="event_type" sheetId="8" r:id="rId5"/>
     <sheet name="manual" sheetId="7" r:id="rId6"/>
-    <sheet name="regist" sheetId="9" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="90">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -314,20 +313,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>店長登録用パスワード</t>
-    <rPh sb="0" eb="2">
-      <t>テンチョウ</t>
-    </rPh>
-    <rPh sb="2" eb="5">
-      <t>トウロクヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>regist</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>店長フラグ</t>
     <rPh sb="0" eb="2">
       <t>テンチョウ</t>
@@ -454,10 +439,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>enevt_id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>正規化？外部キー？ボタンから引っ張ってくる</t>
     <rPh sb="0" eb="3">
       <t>セイキカ</t>
@@ -496,25 +477,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ボタンID</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>button_id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ボタン名</t>
-    <rPh sb="3" eb="4">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>button_name</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>アップルパイ教室は耐え</t>
     <rPh sb="6" eb="8">
       <t>キョウシツ</t>
@@ -525,26 +487,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>regist_pw</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>店長がユーザー登録をする際に使用するやつ</t>
-    <rPh sb="0" eb="2">
-      <t>テンチョウ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>サイ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>シヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>user_id</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -617,6 +559,59 @@
   </si>
   <si>
     <t>date_up</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイプID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>type_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イベントタイプの主キーが外部キーとなる</t>
+    <rPh sb="8" eb="9">
+      <t>シュ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ガイブ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイプ名</t>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>type_name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>eｖent_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>event_type</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イベントタイプ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ファイルID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>file_id</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1046,25 +1041,25 @@
   </sheetPr>
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:E5"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.5" customWidth="1"/>
-    <col min="4" max="4" width="17.875" customWidth="1"/>
-    <col min="5" max="5" width="21.375" customWidth="1"/>
-    <col min="6" max="6" width="58.625" customWidth="1"/>
+    <col min="2" max="2" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.453125" customWidth="1"/>
+    <col min="4" max="4" width="17.90625" customWidth="1"/>
+    <col min="5" max="5" width="21.36328125" customWidth="1"/>
+    <col min="6" max="6" width="58.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="19" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>20</v>
       </c>
@@ -1078,7 +1073,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1092,15 +1087,15 @@
         <v>45820</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D5" s="1" t="s">
         <v>5</v>
       </c>
@@ -1108,7 +1103,7 @@
         <v>45824</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
         <v>6</v>
       </c>
@@ -1125,7 +1120,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B8" s="3">
         <v>1</v>
       </c>
@@ -1139,10 +1134,10 @@
         <v>28</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B9" s="3">
         <v>2</v>
       </c>
@@ -1159,7 +1154,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B10" s="3">
         <v>3</v>
       </c>
@@ -1176,7 +1171,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B11" s="3">
         <v>4</v>
       </c>
@@ -1193,7 +1188,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B12" s="3">
         <v>5</v>
       </c>
@@ -1210,24 +1205,16 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B13" s="3">
         <v>6</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B14" s="3">
         <v>7</v>
       </c>
@@ -1236,7 +1223,7 @@
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B15" s="3">
         <v>8</v>
       </c>
@@ -1245,7 +1232,7 @@
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B16" s="3">
         <v>9</v>
       </c>
@@ -1254,7 +1241,7 @@
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B17" s="3">
         <v>10</v>
       </c>
@@ -1263,7 +1250,7 @@
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B18" s="3">
         <v>11</v>
       </c>
@@ -1272,7 +1259,7 @@
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B19" s="3">
         <v>12</v>
       </c>
@@ -1281,7 +1268,7 @@
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B20" s="3">
         <v>13</v>
       </c>
@@ -1290,7 +1277,7 @@
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B21" s="3">
         <v>14</v>
       </c>
@@ -1299,7 +1286,7 @@
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B22" s="3">
         <v>15</v>
       </c>
@@ -1308,7 +1295,7 @@
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B23" s="3">
         <v>16</v>
       </c>
@@ -1317,7 +1304,7 @@
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B24" s="3">
         <v>17</v>
       </c>
@@ -1326,7 +1313,7 @@
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B25" s="3">
         <v>18</v>
       </c>
@@ -1335,7 +1322,7 @@
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B26" s="3">
         <v>19</v>
       </c>
@@ -1344,7 +1331,7 @@
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B27" s="3">
         <v>20</v>
       </c>
@@ -1353,7 +1340,7 @@
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B28" s="3">
         <v>21</v>
       </c>
@@ -1362,7 +1349,7 @@
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B29" s="3">
         <v>22</v>
       </c>
@@ -1371,7 +1358,7 @@
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B30" s="3">
         <v>23</v>
       </c>
@@ -1380,7 +1367,7 @@
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B31" s="3">
         <v>24</v>
       </c>
@@ -1389,7 +1376,7 @@
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B32" s="3">
         <v>25</v>
       </c>
@@ -1398,7 +1385,7 @@
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B33" s="3">
         <v>26</v>
       </c>
@@ -1407,7 +1394,7 @@
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B34" s="3">
         <v>27</v>
       </c>
@@ -1416,7 +1403,7 @@
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B35" s="3">
         <v>28</v>
       </c>
@@ -1425,7 +1412,7 @@
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B36" s="3">
         <v>29</v>
       </c>
@@ -1434,7 +1421,7 @@
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B37" s="3">
         <v>30</v>
       </c>
@@ -1443,7 +1430,7 @@
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B38" s="3">
         <v>31</v>
       </c>
@@ -1463,27 +1450,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E99A6B0F-C25F-4EA5-B38A-0940CB4B168C}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:E5"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="16.125" customWidth="1"/>
-    <col min="3" max="3" width="19.375" customWidth="1"/>
-    <col min="4" max="4" width="16.25" customWidth="1"/>
-    <col min="5" max="5" width="16.375" customWidth="1"/>
-    <col min="6" max="6" width="9.75" customWidth="1"/>
-    <col min="7" max="7" width="7.25" customWidth="1"/>
-    <col min="8" max="8" width="9.5" customWidth="1"/>
-    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.08984375" customWidth="1"/>
+    <col min="3" max="3" width="19.36328125" customWidth="1"/>
+    <col min="4" max="4" width="16.26953125" customWidth="1"/>
+    <col min="5" max="5" width="16.36328125" customWidth="1"/>
+    <col min="6" max="6" width="9.7265625" customWidth="1"/>
+    <col min="7" max="7" width="7.26953125" customWidth="1"/>
+    <col min="8" max="8" width="9.453125" customWidth="1"/>
+    <col min="9" max="9" width="11.26953125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="45" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A1" s="4"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>20</v>
       </c>
@@ -1497,7 +1484,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1511,7 +1498,7 @@
         <v>45820</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>15</v>
       </c>
@@ -1522,10 +1509,10 @@
         <v>4</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>16</v>
       </c>
@@ -1539,7 +1526,7 @@
         <v>45824</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -1575,7 +1562,7 @@
         <v>create table user (</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>1</v>
       </c>
@@ -1583,31 +1570,29 @@
         <v>41</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>52</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="H10" s="6"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
         <v>id int ,</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>2</v>
       </c>
@@ -1615,10 +1600,10 @@
         <v>42</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E11" s="3">
         <v>50</v>
@@ -1626,18 +1611,18 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
         <v>user_name varchar (50),</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>3</v>
       </c>
@@ -1648,7 +1633,7 @@
         <v>27</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E12" s="3">
         <v>50</v>
@@ -1656,46 +1641,46 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
         <v>password varchar (50),</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
         <v xml:space="preserve">tenchou_flag int </v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>5</v>
       </c>
@@ -1713,7 +1698,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>6</v>
       </c>
@@ -1731,7 +1716,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>7</v>
       </c>
@@ -1749,7 +1734,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>8</v>
       </c>
@@ -1767,7 +1752,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>9</v>
       </c>
@@ -1785,7 +1770,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>10</v>
       </c>
@@ -1803,7 +1788,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>11</v>
       </c>
@@ -1821,7 +1806,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>12</v>
       </c>
@@ -1839,7 +1824,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>13</v>
       </c>
@@ -1857,7 +1842,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>14</v>
       </c>
@@ -1875,7 +1860,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>15</v>
       </c>
@@ -1893,7 +1878,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>16</v>
       </c>
@@ -1911,7 +1896,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>17</v>
       </c>
@@ -1929,7 +1914,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>18</v>
       </c>
@@ -1947,7 +1932,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>19</v>
       </c>
@@ -1965,7 +1950,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>20</v>
       </c>
@@ -1983,7 +1968,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="L30" t="s">
         <v>19</v>
       </c>
@@ -1998,27 +1983,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:E5"/>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="16.125" customWidth="1"/>
-    <col min="3" max="3" width="19.375" customWidth="1"/>
-    <col min="4" max="4" width="16.25" customWidth="1"/>
-    <col min="5" max="5" width="16.375" customWidth="1"/>
-    <col min="6" max="6" width="9.75" customWidth="1"/>
-    <col min="7" max="7" width="7.25" customWidth="1"/>
-    <col min="8" max="8" width="9.5" customWidth="1"/>
-    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="35.875" customWidth="1"/>
+    <col min="2" max="2" width="16.08984375" customWidth="1"/>
+    <col min="3" max="3" width="19.36328125" customWidth="1"/>
+    <col min="4" max="4" width="16.26953125" customWidth="1"/>
+    <col min="5" max="5" width="16.36328125" customWidth="1"/>
+    <col min="6" max="6" width="9.7265625" customWidth="1"/>
+    <col min="7" max="7" width="7.26953125" customWidth="1"/>
+    <col min="8" max="8" width="9.453125" customWidth="1"/>
+    <col min="9" max="9" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="35.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A1" s="4"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>20</v>
       </c>
@@ -2032,7 +2017,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
@@ -2046,7 +2031,7 @@
         <v>45820</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>15</v>
       </c>
@@ -2057,10 +2042,10 @@
         <v>4</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>16</v>
       </c>
@@ -2074,7 +2059,7 @@
         <v>45824</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -2110,29 +2095,27 @@
         <v>create table shift (</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>52</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="H10" s="6"/>
       <c r="I10" s="3"/>
       <c r="J10" s="7"/>
       <c r="L10" t="str">
@@ -2140,24 +2123,24 @@
         <v>shift_id int ,</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="6"/>
       <c r="G11" s="3"/>
       <c r="H11" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
@@ -2166,18 +2149,18 @@
         <v>date date ,</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>60</v>
-      </c>
       <c r="D12" s="3" t="s">
-        <v>49</v>
+        <v>88</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -2187,21 +2170,21 @@
       <c r="J12" s="3"/>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>start int ,</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+        <v>start datetime ,</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>61</v>
-      </c>
       <c r="D13" s="3" t="s">
-        <v>49</v>
+        <v>88</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -2211,21 +2194,21 @@
       <c r="J13" s="3"/>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v>end int ,</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+        <v>end datetime ,</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -2233,14 +2216,14 @@
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
         <v xml:space="preserve">user_id int </v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>6</v>
       </c>
@@ -2258,7 +2241,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>7</v>
       </c>
@@ -2276,7 +2259,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>8</v>
       </c>
@@ -2294,7 +2277,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>9</v>
       </c>
@@ -2312,7 +2295,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>10</v>
       </c>
@@ -2330,7 +2313,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>11</v>
       </c>
@@ -2348,7 +2331,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>12</v>
       </c>
@@ -2366,7 +2349,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>13</v>
       </c>
@@ -2384,7 +2367,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>14</v>
       </c>
@@ -2402,7 +2385,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>15</v>
       </c>
@@ -2420,7 +2403,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>16</v>
       </c>
@@ -2438,7 +2421,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>17</v>
       </c>
@@ -2456,7 +2439,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>18</v>
       </c>
@@ -2474,7 +2457,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>19</v>
       </c>
@@ -2492,7 +2475,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>20</v>
       </c>
@@ -2510,7 +2493,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="L30" t="s">
         <v>19</v>
       </c>
@@ -2526,26 +2509,26 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="A14" sqref="A14:XFD14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="16.125" customWidth="1"/>
-    <col min="3" max="3" width="19.375" customWidth="1"/>
-    <col min="4" max="4" width="16.25" customWidth="1"/>
-    <col min="5" max="5" width="16.375" customWidth="1"/>
-    <col min="6" max="6" width="9.75" customWidth="1"/>
-    <col min="7" max="7" width="7.25" customWidth="1"/>
-    <col min="8" max="8" width="9.5" customWidth="1"/>
-    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.875" customWidth="1"/>
+    <col min="2" max="2" width="16.08984375" customWidth="1"/>
+    <col min="3" max="3" width="19.36328125" customWidth="1"/>
+    <col min="4" max="4" width="16.26953125" customWidth="1"/>
+    <col min="5" max="5" width="16.36328125" customWidth="1"/>
+    <col min="6" max="6" width="9.7265625" customWidth="1"/>
+    <col min="7" max="7" width="7.26953125" customWidth="1"/>
+    <col min="8" max="8" width="9.453125" customWidth="1"/>
+    <col min="9" max="9" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A1" s="4"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>20</v>
       </c>
@@ -2559,7 +2542,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
@@ -2573,7 +2556,7 @@
         <v>45820</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>15</v>
       </c>
@@ -2584,10 +2567,10 @@
         <v>4</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>16</v>
       </c>
@@ -2601,7 +2584,7 @@
         <v>45824</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -2637,26 +2620,24 @@
         <v>create table event (</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E10" s="3"/>
-      <c r="F10" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3" t="s">
-        <v>52</v>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6" t="s">
+        <v>50</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
@@ -2665,23 +2646,23 @@
         <v>date date ,</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>60</v>
-      </c>
       <c r="D11" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="L11" t="str">
@@ -2689,19 +2670,550 @@
         <v>start int ,</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="D12" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="L12" t="str">
+        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
+        <v>end datetime ,</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>4</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="H13" s="6"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>49</v>
-      </c>
+      <c r="L13" t="str">
+        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
+        <v>eｖent_id datetime ,</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>5</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="L14" t="str">
+        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">type_id int </v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <v>6</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="L15" t="str">
+        <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
+        <v>7</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="L16" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
+        <v>8</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="L17" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
+        <v>9</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="L18" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
+        <v>10</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="L19" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
+        <v>11</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="L20" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
+        <v>12</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="L21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" s="3">
+        <v>13</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="L22" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
+        <v>14</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="L23" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" s="3">
+        <v>15</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="L24" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" s="3">
+        <v>16</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="L25" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26" s="3">
+        <v>17</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="L26" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" s="3">
+        <v>18</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="L27" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28" s="3">
+        <v>19</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="L28" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29" s="3">
+        <v>20</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="L29" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L30" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{034BC70C-75C3-4172-8651-A4CAADD718B7}">
+  <dimension ref="A1:L30"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:XFD10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="16.08984375" customWidth="1"/>
+    <col min="3" max="3" width="19.36328125" customWidth="1"/>
+    <col min="4" max="4" width="16.26953125" customWidth="1"/>
+    <col min="5" max="5" width="16.36328125" customWidth="1"/>
+    <col min="6" max="6" width="9.7265625" customWidth="1"/>
+    <col min="7" max="7" width="7.26953125" customWidth="1"/>
+    <col min="8" max="8" width="9.453125" customWidth="1"/>
+    <col min="9" max="9" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.90625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A1" s="4"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="5">
+        <v>45820</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="5">
+        <v>45824</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L9" t="str">
+        <f>"create table "&amp;C5&amp;" ("</f>
+        <v>create table event_type (</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>1</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="H10" s="6"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="L10" t="str">
+        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
+        <v>type_id int ,</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>2</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" s="3">
+        <v>8</v>
+      </c>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="L11" t="str">
+        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
+        <v>type_name varchar (8)</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>3</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
@@ -2710,36 +3222,28 @@
       <c r="J12" s="3"/>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>end int ,</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>4</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>49</v>
-      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
-      <c r="J13" s="3" t="s">
-        <v>64</v>
-      </c>
+      <c r="J13" s="3"/>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">enevt_id int </v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>5</v>
       </c>
@@ -2757,7 +3261,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>6</v>
       </c>
@@ -2775,7 +3279,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>7</v>
       </c>
@@ -2793,7 +3297,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>8</v>
       </c>
@@ -2811,7 +3315,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>9</v>
       </c>
@@ -2829,7 +3333,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>10</v>
       </c>
@@ -2847,7 +3351,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>11</v>
       </c>
@@ -2865,7 +3369,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>12</v>
       </c>
@@ -2883,7 +3387,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>13</v>
       </c>
@@ -2901,7 +3405,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>14</v>
       </c>
@@ -2919,7 +3423,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>15</v>
       </c>
@@ -2937,7 +3441,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>16</v>
       </c>
@@ -2955,7 +3459,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>17</v>
       </c>
@@ -2973,7 +3477,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>18</v>
       </c>
@@ -2991,7 +3495,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>19</v>
       </c>
@@ -3009,7 +3513,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>20</v>
       </c>
@@ -3027,7 +3531,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="L30" t="s">
         <v>19</v>
       </c>
@@ -3038,31 +3542,31 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{034BC70C-75C3-4172-8651-A4CAADD718B7}">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D60B1F0D-DEC1-43A6-98A1-7AE8A7B94815}">
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="16.125" customWidth="1"/>
-    <col min="3" max="3" width="19.375" customWidth="1"/>
-    <col min="4" max="4" width="16.25" customWidth="1"/>
-    <col min="5" max="5" width="16.375" customWidth="1"/>
-    <col min="6" max="6" width="9.75" customWidth="1"/>
-    <col min="7" max="7" width="7.25" customWidth="1"/>
-    <col min="8" max="8" width="9.5" customWidth="1"/>
-    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.875" customWidth="1"/>
+    <col min="2" max="2" width="16.08984375" customWidth="1"/>
+    <col min="3" max="3" width="19.36328125" customWidth="1"/>
+    <col min="4" max="4" width="16.26953125" customWidth="1"/>
+    <col min="5" max="5" width="16.36328125" customWidth="1"/>
+    <col min="6" max="6" width="9.7265625" customWidth="1"/>
+    <col min="7" max="7" width="7.26953125" customWidth="1"/>
+    <col min="8" max="8" width="9.453125" customWidth="1"/>
+    <col min="9" max="9" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A1" s="4"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>20</v>
       </c>
@@ -3076,7 +3580,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
@@ -3090,26 +3594,26 @@
         <v>45820</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -3118,7 +3622,7 @@
         <v>45824</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -3151,78 +3655,78 @@
       </c>
       <c r="L9" t="str">
         <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table event_button (</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+        <v>create table manual (</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>52</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="E10" s="3">
+        <v>65534</v>
+      </c>
+      <c r="F10" s="6"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v>button_id int ,</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+        <v>manual_file varchar (65534),</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E11" s="3">
-        <v>8</v>
-      </c>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="I11" s="3"/>
+        <v>47</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3">
+        <v>2</v>
+      </c>
       <c r="J11" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>button_name varchar (8)</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+        <v>importance int ,</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>3</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
+      <c r="B12" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>60</v>
+      </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
@@ -3231,28 +3735,38 @@
       <c r="J12" s="3"/>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+        <v>date_up date ,</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>4</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
+      <c r="B13" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
+      <c r="F13" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>50</v>
+      </c>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+        <v xml:space="preserve">file_id int </v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>5</v>
       </c>
@@ -3270,7 +3784,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>6</v>
       </c>
@@ -3288,7 +3802,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>7</v>
       </c>
@@ -3306,7 +3820,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>8</v>
       </c>
@@ -3324,7 +3838,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>9</v>
       </c>
@@ -3342,7 +3856,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>10</v>
       </c>
@@ -3360,7 +3874,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>11</v>
       </c>
@@ -3378,7 +3892,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>12</v>
       </c>
@@ -3396,7 +3910,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>13</v>
       </c>
@@ -3414,7 +3928,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>14</v>
       </c>
@@ -3432,7 +3946,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>15</v>
       </c>
@@ -3450,7 +3964,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>16</v>
       </c>
@@ -3468,7 +3982,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>17</v>
       </c>
@@ -3486,7 +4000,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>18</v>
       </c>
@@ -3504,7 +4018,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>19</v>
       </c>
@@ -3522,7 +4036,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>20</v>
       </c>
@@ -3540,1017 +4054,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="L30" t="s">
-        <v>19</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D60B1F0D-DEC1-43A6-98A1-7AE8A7B94815}">
-  <dimension ref="A1:L30"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="2" max="2" width="16.125" customWidth="1"/>
-    <col min="3" max="3" width="19.375" customWidth="1"/>
-    <col min="4" max="4" width="16.25" customWidth="1"/>
-    <col min="5" max="5" width="16.375" customWidth="1"/>
-    <col min="6" max="6" width="9.75" customWidth="1"/>
-    <col min="7" max="7" width="7.25" customWidth="1"/>
-    <col min="8" max="8" width="9.5" customWidth="1"/>
-    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A1" s="4"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="5">
-        <v>45820</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="5">
-        <v>45824</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L9" t="str">
-        <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table manual (</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A10" s="3">
-        <v>1</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E10" s="3">
-        <v>65534</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="L10" t="str">
-        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v>manual_file varchar (65534),</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A11" s="3">
-        <v>2</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3">
-        <v>2</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="L11" t="str">
-        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>importance int ,</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A12" s="3">
-        <v>3</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="L12" t="str">
-        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">date_up date </v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A13" s="3">
-        <v>4</v>
-      </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="L13" t="str">
-        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A14" s="3">
-        <v>5</v>
-      </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="L14" t="str">
-        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A15" s="3">
-        <v>6</v>
-      </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="L15" t="str">
-        <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A16" s="3">
-        <v>7</v>
-      </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="L16" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A17" s="3">
-        <v>8</v>
-      </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="L17" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A18" s="3">
-        <v>9</v>
-      </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="L18" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A19" s="3">
-        <v>10</v>
-      </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="L19" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A20" s="3">
-        <v>11</v>
-      </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="L20" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A21" s="3">
-        <v>12</v>
-      </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="L21" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A22" s="3">
-        <v>13</v>
-      </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="L22" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A23" s="3">
-        <v>14</v>
-      </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="L23" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A24" s="3">
-        <v>15</v>
-      </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="L24" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A25" s="3">
-        <v>16</v>
-      </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="L25" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A26" s="3">
-        <v>17</v>
-      </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="L26" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A27" s="3">
-        <v>18</v>
-      </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="L27" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A28" s="3">
-        <v>19</v>
-      </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="L28" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A29" s="3">
-        <v>20</v>
-      </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="L29" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="L30" t="s">
-        <v>19</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D0D38B3-62B0-4DBD-9A4D-147ECC93EA1C}">
-  <dimension ref="A1:L30"/>
-  <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="3" max="3" width="19.375" customWidth="1"/>
-    <col min="4" max="4" width="16.25" customWidth="1"/>
-    <col min="5" max="5" width="16.375" customWidth="1"/>
-    <col min="6" max="6" width="9.75" customWidth="1"/>
-    <col min="7" max="7" width="7.25" customWidth="1"/>
-    <col min="8" max="8" width="9.5" customWidth="1"/>
-    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A1" s="4"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="5">
-        <v>45820</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="5">
-        <v>45824</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L9" t="str">
-        <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table  (</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A10" s="3">
-        <v>1</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E10" s="3">
-        <v>50</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="L10" t="str">
-        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v>regist_pw varchar (50)</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A11" s="3">
-        <v>2</v>
-      </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="L11" t="str">
-        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A12" s="3">
-        <v>3</v>
-      </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="L12" t="str">
-        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A13" s="3">
-        <v>4</v>
-      </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="L13" t="str">
-        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A14" s="3">
-        <v>5</v>
-      </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="L14" t="str">
-        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A15" s="3">
-        <v>6</v>
-      </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="L15" t="str">
-        <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A16" s="3">
-        <v>7</v>
-      </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="L16" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A17" s="3">
-        <v>8</v>
-      </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="L17" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A18" s="3">
-        <v>9</v>
-      </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="L18" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A19" s="3">
-        <v>10</v>
-      </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="L19" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A20" s="3">
-        <v>11</v>
-      </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="L20" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A21" s="3">
-        <v>12</v>
-      </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="L21" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A22" s="3">
-        <v>13</v>
-      </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="L22" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A23" s="3">
-        <v>14</v>
-      </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="L23" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A24" s="3">
-        <v>15</v>
-      </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="L24" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A25" s="3">
-        <v>16</v>
-      </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="L25" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A26" s="3">
-        <v>17</v>
-      </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="L26" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A27" s="3">
-        <v>18</v>
-      </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="L27" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A28" s="3">
-        <v>19</v>
-      </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="L28" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A29" s="3">
-        <v>20</v>
-      </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="L29" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="L30" t="s">
         <v>19</v>
       </c>

--- a/documents/外部設計/061225_データベース設計書_落穂ひろい.xlsx
+++ b/documents/外部設計/061225_データベース設計書_落穂ひろい.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\plusdojo2025\A5\documents\外部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8F7D2B8-09D8-4A4A-96BA-97D58C0EAB5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC9CFA66-6DE0-436B-9B41-52443DA12C94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3645" yWindow="12705" windowWidth="22890" windowHeight="14955" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="85">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -595,7 +595,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1=Red  2=Yellow  3=Green</t>
+    <t>1=Green  2=Yellow  3=Red</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1025,25 +1025,25 @@
   </sheetPr>
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.5" customWidth="1"/>
-    <col min="4" max="4" width="17.875" customWidth="1"/>
-    <col min="5" max="5" width="21.375" customWidth="1"/>
-    <col min="6" max="6" width="58.625" customWidth="1"/>
+    <col min="2" max="2" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.453125" customWidth="1"/>
+    <col min="4" max="4" width="17.90625" customWidth="1"/>
+    <col min="5" max="5" width="21.36328125" customWidth="1"/>
+    <col min="6" max="6" width="58.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="19" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>20</v>
       </c>
@@ -1057,7 +1057,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1071,7 +1071,7 @@
         <v>45820</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D4" s="1" t="s">
         <v>4</v>
       </c>
@@ -1079,7 +1079,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D5" s="1" t="s">
         <v>5</v>
       </c>
@@ -1087,7 +1087,7 @@
         <v>45820</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
         <v>6</v>
       </c>
@@ -1104,7 +1104,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B8" s="3">
         <v>1</v>
       </c>
@@ -1121,7 +1121,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B9" s="3">
         <v>2</v>
       </c>
@@ -1138,7 +1138,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B10" s="3">
         <v>3</v>
       </c>
@@ -1155,7 +1155,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B11" s="3">
         <v>4</v>
       </c>
@@ -1172,7 +1172,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B12" s="3">
         <v>5</v>
       </c>
@@ -1189,7 +1189,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B13" s="3">
         <v>6</v>
       </c>
@@ -1206,7 +1206,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B14" s="3">
         <v>7</v>
       </c>
@@ -1215,7 +1215,7 @@
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B15" s="3">
         <v>8</v>
       </c>
@@ -1224,7 +1224,7 @@
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B16" s="3">
         <v>9</v>
       </c>
@@ -1233,7 +1233,7 @@
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B17" s="3">
         <v>10</v>
       </c>
@@ -1242,7 +1242,7 @@
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B18" s="3">
         <v>11</v>
       </c>
@@ -1251,7 +1251,7 @@
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B19" s="3">
         <v>12</v>
       </c>
@@ -1260,7 +1260,7 @@
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B20" s="3">
         <v>13</v>
       </c>
@@ -1269,7 +1269,7 @@
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B21" s="3">
         <v>14</v>
       </c>
@@ -1278,7 +1278,7 @@
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B22" s="3">
         <v>15</v>
       </c>
@@ -1287,7 +1287,7 @@
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B23" s="3">
         <v>16</v>
       </c>
@@ -1296,7 +1296,7 @@
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B24" s="3">
         <v>17</v>
       </c>
@@ -1305,7 +1305,7 @@
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B25" s="3">
         <v>18</v>
       </c>
@@ -1314,7 +1314,7 @@
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B26" s="3">
         <v>19</v>
       </c>
@@ -1323,7 +1323,7 @@
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B27" s="3">
         <v>20</v>
       </c>
@@ -1332,7 +1332,7 @@
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B28" s="3">
         <v>21</v>
       </c>
@@ -1341,7 +1341,7 @@
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B29" s="3">
         <v>22</v>
       </c>
@@ -1350,7 +1350,7 @@
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B30" s="3">
         <v>23</v>
       </c>
@@ -1359,7 +1359,7 @@
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B31" s="3">
         <v>24</v>
       </c>
@@ -1368,7 +1368,7 @@
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B32" s="3">
         <v>25</v>
       </c>
@@ -1377,7 +1377,7 @@
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B33" s="3">
         <v>26</v>
       </c>
@@ -1386,7 +1386,7 @@
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B34" s="3">
         <v>27</v>
       </c>
@@ -1395,7 +1395,7 @@
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B35" s="3">
         <v>28</v>
       </c>
@@ -1404,7 +1404,7 @@
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B36" s="3">
         <v>29</v>
       </c>
@@ -1413,7 +1413,7 @@
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B37" s="3">
         <v>30</v>
       </c>
@@ -1422,7 +1422,7 @@
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B38" s="3">
         <v>31</v>
       </c>
@@ -1442,27 +1442,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E99A6B0F-C25F-4EA5-B38A-0940CB4B168C}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
-    </sheetView>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="16.125" customWidth="1"/>
-    <col min="3" max="3" width="19.375" customWidth="1"/>
-    <col min="4" max="4" width="16.25" customWidth="1"/>
-    <col min="5" max="5" width="16.375" customWidth="1"/>
-    <col min="6" max="6" width="9.75" customWidth="1"/>
-    <col min="7" max="7" width="7.25" customWidth="1"/>
-    <col min="8" max="8" width="9.5" customWidth="1"/>
-    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.08984375" customWidth="1"/>
+    <col min="3" max="3" width="19.36328125" customWidth="1"/>
+    <col min="4" max="4" width="16.26953125" customWidth="1"/>
+    <col min="5" max="5" width="16.36328125" customWidth="1"/>
+    <col min="6" max="6" width="9.7265625" customWidth="1"/>
+    <col min="7" max="7" width="7.26953125" customWidth="1"/>
+    <col min="8" max="8" width="9.453125" customWidth="1"/>
+    <col min="9" max="9" width="11.26953125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="45" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A1" s="4"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>20</v>
       </c>
@@ -1476,7 +1474,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1490,11 +1488,13 @@
         <v>45820</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="3"/>
+      <c r="C4" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="D4" s="1" t="s">
         <v>4</v>
       </c>
@@ -1502,11 +1502,13 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="3"/>
+      <c r="C5" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
       </c>
@@ -1514,7 +1516,7 @@
         <v>45820</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -1547,10 +1549,10 @@
       </c>
       <c r="L9" t="str">
         <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table  (</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+        <v>create table user (</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>1</v>
       </c>
@@ -1582,7 +1584,7 @@
         <v>id int ,</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>2</v>
       </c>
@@ -1612,7 +1614,7 @@
         <v>user_name varchar (50),</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>3</v>
       </c>
@@ -1642,7 +1644,7 @@
         <v>password varchar (50),</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>4</v>
       </c>
@@ -1670,7 +1672,7 @@
         <v xml:space="preserve">tenchou_flag int </v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>5</v>
       </c>
@@ -1688,7 +1690,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>6</v>
       </c>
@@ -1706,7 +1708,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>7</v>
       </c>
@@ -1724,7 +1726,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>8</v>
       </c>
@@ -1742,7 +1744,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>9</v>
       </c>
@@ -1760,7 +1762,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>10</v>
       </c>
@@ -1778,7 +1780,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>11</v>
       </c>
@@ -1796,7 +1798,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>12</v>
       </c>
@@ -1814,7 +1816,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>13</v>
       </c>
@@ -1832,7 +1834,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>14</v>
       </c>
@@ -1850,7 +1852,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>15</v>
       </c>
@@ -1868,7 +1870,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>16</v>
       </c>
@@ -1886,7 +1888,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>17</v>
       </c>
@@ -1904,7 +1906,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>18</v>
       </c>
@@ -1922,7 +1924,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>19</v>
       </c>
@@ -1940,7 +1942,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>20</v>
       </c>
@@ -1958,7 +1960,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="L30" t="s">
         <v>19</v>
       </c>
@@ -1973,27 +1975,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
-    </sheetView>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="16.125" customWidth="1"/>
-    <col min="3" max="3" width="19.375" customWidth="1"/>
-    <col min="4" max="4" width="16.25" customWidth="1"/>
-    <col min="5" max="5" width="16.375" customWidth="1"/>
-    <col min="6" max="6" width="9.75" customWidth="1"/>
-    <col min="7" max="7" width="7.25" customWidth="1"/>
-    <col min="8" max="8" width="9.5" customWidth="1"/>
-    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="35.875" customWidth="1"/>
+    <col min="2" max="2" width="16.08984375" customWidth="1"/>
+    <col min="3" max="3" width="19.36328125" customWidth="1"/>
+    <col min="4" max="4" width="16.26953125" customWidth="1"/>
+    <col min="5" max="5" width="16.36328125" customWidth="1"/>
+    <col min="6" max="6" width="9.7265625" customWidth="1"/>
+    <col min="7" max="7" width="7.26953125" customWidth="1"/>
+    <col min="8" max="8" width="9.453125" customWidth="1"/>
+    <col min="9" max="9" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="35.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A1" s="4"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>20</v>
       </c>
@@ -2007,7 +2007,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
@@ -2021,7 +2021,7 @@
         <v>45820</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>15</v>
       </c>
@@ -2035,7 +2035,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>16</v>
       </c>
@@ -2049,7 +2049,7 @@
         <v>45820</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -2085,7 +2085,7 @@
         <v>create table shift (</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>1</v>
       </c>
@@ -2115,7 +2115,7 @@
         <v>shift_id int ,</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>2</v>
       </c>
@@ -2141,7 +2141,7 @@
         <v>date date ,</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>3</v>
       </c>
@@ -2165,7 +2165,7 @@
         <v>start int ,</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>4</v>
       </c>
@@ -2189,7 +2189,7 @@
         <v>end int ,</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>5</v>
       </c>
@@ -2215,7 +2215,7 @@
         <v xml:space="preserve">user_id int </v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>6</v>
       </c>
@@ -2233,7 +2233,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>7</v>
       </c>
@@ -2251,7 +2251,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>8</v>
       </c>
@@ -2269,7 +2269,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>9</v>
       </c>
@@ -2287,7 +2287,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>10</v>
       </c>
@@ -2305,7 +2305,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>11</v>
       </c>
@@ -2323,7 +2323,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>12</v>
       </c>
@@ -2341,7 +2341,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>13</v>
       </c>
@@ -2359,7 +2359,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>14</v>
       </c>
@@ -2377,7 +2377,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>15</v>
       </c>
@@ -2395,7 +2395,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>16</v>
       </c>
@@ -2413,7 +2413,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>17</v>
       </c>
@@ -2431,7 +2431,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>18</v>
       </c>
@@ -2449,7 +2449,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>19</v>
       </c>
@@ -2467,7 +2467,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>20</v>
       </c>
@@ -2485,7 +2485,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="L30" t="s">
         <v>19</v>
       </c>
@@ -2500,27 +2500,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79B33EA2-626B-430F-8E94-8B4B16AE7525}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
-    </sheetView>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="16.125" customWidth="1"/>
-    <col min="3" max="3" width="19.375" customWidth="1"/>
-    <col min="4" max="4" width="16.25" customWidth="1"/>
-    <col min="5" max="5" width="16.375" customWidth="1"/>
-    <col min="6" max="6" width="9.75" customWidth="1"/>
-    <col min="7" max="7" width="7.25" customWidth="1"/>
-    <col min="8" max="8" width="9.5" customWidth="1"/>
-    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.875" customWidth="1"/>
+    <col min="2" max="2" width="16.08984375" customWidth="1"/>
+    <col min="3" max="3" width="19.36328125" customWidth="1"/>
+    <col min="4" max="4" width="16.26953125" customWidth="1"/>
+    <col min="5" max="5" width="16.36328125" customWidth="1"/>
+    <col min="6" max="6" width="9.7265625" customWidth="1"/>
+    <col min="7" max="7" width="7.26953125" customWidth="1"/>
+    <col min="8" max="8" width="9.453125" customWidth="1"/>
+    <col min="9" max="9" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A1" s="4"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>20</v>
       </c>
@@ -2534,7 +2532,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
@@ -2548,11 +2546,13 @@
         <v>45820</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="3"/>
+      <c r="C4" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="D4" s="1" t="s">
         <v>4</v>
       </c>
@@ -2560,11 +2560,13 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="3"/>
+      <c r="C5" s="3" t="s">
+        <v>33</v>
+      </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
       </c>
@@ -2572,7 +2574,7 @@
         <v>45820</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -2605,10 +2607,10 @@
       </c>
       <c r="L9" t="str">
         <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table  (</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+        <v>create table event (</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>1</v>
       </c>
@@ -2636,7 +2638,7 @@
         <v>date date ,</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>2</v>
       </c>
@@ -2660,7 +2662,7 @@
         <v>start int ,</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>3</v>
       </c>
@@ -2684,7 +2686,7 @@
         <v>end int ,</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>4</v>
       </c>
@@ -2710,7 +2712,7 @@
         <v xml:space="preserve">enevt_id int </v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>5</v>
       </c>
@@ -2728,7 +2730,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>6</v>
       </c>
@@ -2746,7 +2748,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>7</v>
       </c>
@@ -2764,7 +2766,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>8</v>
       </c>
@@ -2782,7 +2784,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>9</v>
       </c>
@@ -2800,7 +2802,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>10</v>
       </c>
@@ -2818,7 +2820,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>11</v>
       </c>
@@ -2836,7 +2838,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>12</v>
       </c>
@@ -2854,7 +2856,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>13</v>
       </c>
@@ -2872,7 +2874,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>14</v>
       </c>
@@ -2890,7 +2892,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>15</v>
       </c>
@@ -2908,7 +2910,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>16</v>
       </c>
@@ -2926,7 +2928,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>17</v>
       </c>
@@ -2944,7 +2946,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>18</v>
       </c>
@@ -2962,7 +2964,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>19</v>
       </c>
@@ -2980,7 +2982,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>20</v>
       </c>
@@ -2998,7 +3000,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="L30" t="s">
         <v>19</v>
       </c>
@@ -3013,27 +3015,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{034BC70C-75C3-4172-8651-A4CAADD718B7}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
-    </sheetView>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="16.125" customWidth="1"/>
-    <col min="3" max="3" width="19.375" customWidth="1"/>
-    <col min="4" max="4" width="16.25" customWidth="1"/>
-    <col min="5" max="5" width="16.375" customWidth="1"/>
-    <col min="6" max="6" width="9.75" customWidth="1"/>
-    <col min="7" max="7" width="7.25" customWidth="1"/>
-    <col min="8" max="8" width="9.5" customWidth="1"/>
-    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.875" customWidth="1"/>
+    <col min="2" max="2" width="16.08984375" customWidth="1"/>
+    <col min="3" max="3" width="19.36328125" customWidth="1"/>
+    <col min="4" max="4" width="16.26953125" customWidth="1"/>
+    <col min="5" max="5" width="16.36328125" customWidth="1"/>
+    <col min="6" max="6" width="9.7265625" customWidth="1"/>
+    <col min="7" max="7" width="7.26953125" customWidth="1"/>
+    <col min="8" max="8" width="9.453125" customWidth="1"/>
+    <col min="9" max="9" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A1" s="4"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>20</v>
       </c>
@@ -3047,7 +3047,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
@@ -3061,11 +3061,13 @@
         <v>45820</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="3"/>
+      <c r="C4" s="3" t="s">
+        <v>38</v>
+      </c>
       <c r="D4" s="1" t="s">
         <v>4</v>
       </c>
@@ -3073,11 +3075,13 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="3"/>
+      <c r="C5" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
       </c>
@@ -3085,7 +3089,7 @@
         <v>45820</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -3118,10 +3122,10 @@
       </c>
       <c r="L9" t="str">
         <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table  (</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+        <v>create table event_button (</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>1</v>
       </c>
@@ -3153,7 +3157,7 @@
         <v>button_id int ,</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>2</v>
       </c>
@@ -3183,7 +3187,7 @@
         <v>button_name varchar (8)</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>3</v>
       </c>
@@ -3201,7 +3205,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>4</v>
       </c>
@@ -3219,7 +3223,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>5</v>
       </c>
@@ -3237,7 +3241,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>6</v>
       </c>
@@ -3255,7 +3259,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>7</v>
       </c>
@@ -3273,7 +3277,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>8</v>
       </c>
@@ -3291,7 +3295,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>9</v>
       </c>
@@ -3309,7 +3313,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>10</v>
       </c>
@@ -3327,7 +3331,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>11</v>
       </c>
@@ -3345,7 +3349,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>12</v>
       </c>
@@ -3363,7 +3367,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>13</v>
       </c>
@@ -3381,7 +3385,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>14</v>
       </c>
@@ -3399,7 +3403,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>15</v>
       </c>
@@ -3417,7 +3421,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>16</v>
       </c>
@@ -3435,7 +3439,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>17</v>
       </c>
@@ -3453,7 +3457,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>18</v>
       </c>
@@ -3471,7 +3475,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>19</v>
       </c>
@@ -3489,7 +3493,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>20</v>
       </c>
@@ -3507,7 +3511,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="L30" t="s">
         <v>19</v>
       </c>
@@ -3522,27 +3526,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D60B1F0D-DEC1-43A6-98A1-7AE8A7B94815}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
-    </sheetView>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="16.125" customWidth="1"/>
-    <col min="3" max="3" width="19.375" customWidth="1"/>
-    <col min="4" max="4" width="16.25" customWidth="1"/>
-    <col min="5" max="5" width="16.375" customWidth="1"/>
-    <col min="6" max="6" width="9.75" customWidth="1"/>
-    <col min="7" max="7" width="7.25" customWidth="1"/>
-    <col min="8" max="8" width="9.5" customWidth="1"/>
-    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.875" customWidth="1"/>
+    <col min="2" max="2" width="16.08984375" customWidth="1"/>
+    <col min="3" max="3" width="19.36328125" customWidth="1"/>
+    <col min="4" max="4" width="16.26953125" customWidth="1"/>
+    <col min="5" max="5" width="16.36328125" customWidth="1"/>
+    <col min="6" max="6" width="9.7265625" customWidth="1"/>
+    <col min="7" max="7" width="7.26953125" customWidth="1"/>
+    <col min="8" max="8" width="9.453125" customWidth="1"/>
+    <col min="9" max="9" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A1" s="4"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>20</v>
       </c>
@@ -3556,7 +3558,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
@@ -3570,11 +3572,13 @@
         <v>45820</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="3"/>
+      <c r="C4" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="D4" s="1" t="s">
         <v>4</v>
       </c>
@@ -3582,11 +3586,13 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="3"/>
+      <c r="C5" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
       </c>
@@ -3594,7 +3600,7 @@
         <v>45820</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -3627,10 +3633,10 @@
       </c>
       <c r="L9" t="str">
         <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table  (</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+        <v>create table manual (</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>1</v>
       </c>
@@ -3658,7 +3664,7 @@
         <v>manual_file varchar (65534),</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>2</v>
       </c>
@@ -3686,7 +3692,7 @@
         <v xml:space="preserve">importance int </v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>3</v>
       </c>
@@ -3704,7 +3710,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>4</v>
       </c>
@@ -3722,7 +3728,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>5</v>
       </c>
@@ -3740,7 +3746,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>6</v>
       </c>
@@ -3758,7 +3764,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>7</v>
       </c>
@@ -3776,7 +3782,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>8</v>
       </c>
@@ -3794,7 +3800,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>9</v>
       </c>
@@ -3812,7 +3818,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>10</v>
       </c>
@@ -3830,7 +3836,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>11</v>
       </c>
@@ -3848,7 +3854,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>12</v>
       </c>
@@ -3866,7 +3872,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>13</v>
       </c>
@@ -3884,7 +3890,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>14</v>
       </c>
@@ -3902,7 +3908,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>15</v>
       </c>
@@ -3920,7 +3926,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>16</v>
       </c>
@@ -3938,7 +3944,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>17</v>
       </c>
@@ -3956,7 +3962,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>18</v>
       </c>
@@ -3974,7 +3980,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>19</v>
       </c>
@@ -3992,7 +3998,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>20</v>
       </c>
@@ -4010,7 +4016,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="L30" t="s">
         <v>19</v>
       </c>
@@ -4025,27 +4031,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D0D38B3-62B0-4DBD-9A4D-147ECC93EA1C}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
-    </sheetView>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="16.125" customWidth="1"/>
-    <col min="3" max="3" width="19.375" customWidth="1"/>
-    <col min="4" max="4" width="16.25" customWidth="1"/>
-    <col min="5" max="5" width="16.375" customWidth="1"/>
-    <col min="6" max="6" width="9.75" customWidth="1"/>
-    <col min="7" max="7" width="7.25" customWidth="1"/>
-    <col min="8" max="8" width="9.5" customWidth="1"/>
-    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.875" customWidth="1"/>
+    <col min="2" max="2" width="16.08984375" customWidth="1"/>
+    <col min="3" max="3" width="19.36328125" customWidth="1"/>
+    <col min="4" max="4" width="16.26953125" customWidth="1"/>
+    <col min="5" max="5" width="16.36328125" customWidth="1"/>
+    <col min="6" max="6" width="9.7265625" customWidth="1"/>
+    <col min="7" max="7" width="7.26953125" customWidth="1"/>
+    <col min="8" max="8" width="9.453125" customWidth="1"/>
+    <col min="9" max="9" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A1" s="4"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>20</v>
       </c>
@@ -4059,7 +4063,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
@@ -4073,7 +4077,7 @@
         <v>45820</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>15</v>
       </c>
@@ -4085,7 +4089,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>16</v>
       </c>
@@ -4097,7 +4101,7 @@
         <v>45820</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -4133,7 +4137,7 @@
         <v>create table  (</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>1</v>
       </c>
@@ -4163,7 +4167,7 @@
         <v>regist_pw varchar (50)</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>2</v>
       </c>
@@ -4181,7 +4185,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>3</v>
       </c>
@@ -4199,7 +4203,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>4</v>
       </c>
@@ -4217,7 +4221,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>5</v>
       </c>
@@ -4235,7 +4239,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>6</v>
       </c>
@@ -4253,7 +4257,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>7</v>
       </c>
@@ -4271,7 +4275,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>8</v>
       </c>
@@ -4289,7 +4293,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>9</v>
       </c>
@@ -4307,7 +4311,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>10</v>
       </c>
@@ -4325,7 +4329,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>11</v>
       </c>
@@ -4343,7 +4347,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>12</v>
       </c>
@@ -4361,7 +4365,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>13</v>
       </c>
@@ -4379,7 +4383,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>14</v>
       </c>
@@ -4397,7 +4401,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>15</v>
       </c>
@@ -4415,7 +4419,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>16</v>
       </c>
@@ -4433,7 +4437,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>17</v>
       </c>
@@ -4451,7 +4455,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>18</v>
       </c>
@@ -4469,7 +4473,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>19</v>
       </c>
@@ -4487,7 +4491,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>20</v>
       </c>
@@ -4505,7 +4509,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="L30" t="s">
         <v>19</v>
       </c>

--- a/documents/外部設計/061225_データベース設計書_落穂ひろい.xlsx
+++ b/documents/外部設計/061225_データベース設計書_落穂ひろい.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\plusdojo2025\A5\documents\外部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2122E426-8C1E-40B8-B9C3-402ADB2A82D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{012A9E0F-A35B-4963-A491-C3D0A61F5CFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15190" yWindow="7610" windowWidth="21710" windowHeight="12260" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="88">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -284,14 +284,6 @@
     <rPh sb="0" eb="3">
       <t>ユウセンド</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>イベントボタン</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>event_button</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1041,8 +1033,8 @@
   </sheetPr>
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -1092,7 +1084,7 @@
         <v>4</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -1134,7 +1126,7 @@
         <v>28</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -1176,16 +1168,16 @@
         <v>4</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>35</v>
+        <v>84</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>36</v>
+        <v>83</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>28</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -1193,16 +1185,16 @@
         <v>5</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>28</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -1450,7 +1442,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E99A6B0F-C25F-4EA5-B38A-0940CB4B168C}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
@@ -1509,7 +1501,7 @@
         <v>4</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
@@ -1567,25 +1559,25 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H10" s="6"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
@@ -1597,13 +1589,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E11" s="3">
         <v>50</v>
@@ -1611,11 +1603,11 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
@@ -1633,7 +1625,7 @@
         <v>27</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E12" s="3">
         <v>50</v>
@@ -1641,11 +1633,11 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
@@ -1657,23 +1649,23 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
@@ -2042,7 +2034,7 @@
         <v>4</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
@@ -2100,20 +2092,20 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H10" s="6"/>
       <c r="I10" s="3"/>
@@ -2128,19 +2120,19 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="6"/>
       <c r="G11" s="3"/>
       <c r="H11" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
@@ -2154,13 +2146,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>58</v>
-      </c>
       <c r="D12" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -2178,13 +2170,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>59</v>
-      </c>
       <c r="D13" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -2202,13 +2194,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -2216,7 +2208,7 @@
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
@@ -2567,7 +2559,7 @@
         <v>4</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
@@ -2625,19 +2617,19 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
       <c r="H10" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
@@ -2651,13 +2643,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>58</v>
-      </c>
       <c r="D11" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="6"/>
@@ -2675,13 +2667,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>59</v>
-      </c>
       <c r="D12" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="6"/>
@@ -2699,25 +2691,25 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H13" s="6"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
@@ -2729,13 +2721,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="6"/>
@@ -2743,7 +2735,7 @@
       <c r="H14" s="6"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
@@ -3088,13 +3080,13 @@
         <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
@@ -3102,7 +3094,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -3152,25 +3144,25 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H10" s="6"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
@@ -3182,13 +3174,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E11" s="3">
         <v>8</v>
@@ -3196,11 +3188,11 @@
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
       <c r="H11" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
@@ -3605,7 +3597,7 @@
         <v>4</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
@@ -3663,13 +3655,13 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E10" s="3">
         <v>65534</v>
@@ -3679,7 +3671,7 @@
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
@@ -3691,13 +3683,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -3707,7 +3699,7 @@
         <v>2</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
@@ -3719,13 +3711,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -3743,20 +3735,20 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>89</v>
-      </c>
       <c r="D13" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>

--- a/documents/外部設計/061225_データベース設計書_落穂ひろい.xlsx
+++ b/documents/外部設計/061225_データベース設計書_落穂ひろい.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\plusdojo2025\A5\documents\外部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{012A9E0F-A35B-4963-A491-C3D0A61F5CFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7DCC14F-4F61-43C5-9963-92728312B7F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="192" yWindow="168" windowWidth="13224" windowHeight="12684" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="92">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -419,14 +419,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>start</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>end</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>date</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -505,19 +497,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>エクリプスのフォルダに保存。VARCHAR制限の1文字分遠慮</t>
-    <rPh sb="11" eb="13">
-      <t>ホゾン</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>セイゲン</t>
-    </rPh>
-    <rPh sb="25" eb="30">
-      <t>モジブンエンリョ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>重要度設定</t>
     <rPh sb="0" eb="5">
       <t>ジュウヨウドセッテイ</t>
@@ -604,6 +583,37 @@
   </si>
   <si>
     <t>file_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>event_date</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>event_start</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>event_end</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>shift_date</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>shift_start</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>shift_end</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>村井啓亮</t>
+    <rPh sb="0" eb="4">
+      <t>ムライケイスケ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1033,20 +1043,20 @@
   </sheetPr>
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="12.36328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.453125" customWidth="1"/>
-    <col min="4" max="4" width="17.90625" customWidth="1"/>
-    <col min="5" max="5" width="21.36328125" customWidth="1"/>
-    <col min="6" max="6" width="58.6328125" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.44140625" customWidth="1"/>
+    <col min="4" max="4" width="17.88671875" customWidth="1"/>
+    <col min="5" max="5" width="21.33203125" customWidth="1"/>
+    <col min="6" max="6" width="58.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="19.2" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1065,7 +1075,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="16.8" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1084,7 +1094,7 @@
         <v>4</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -1168,10 +1178,10 @@
         <v>4</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>28</v>
@@ -1197,7 +1207,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" ht="13.05" x14ac:dyDescent="0.2">
       <c r="B13" s="3">
         <v>6</v>
       </c>
@@ -1206,7 +1216,7 @@
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" ht="13.05" x14ac:dyDescent="0.2">
       <c r="B14" s="3">
         <v>7</v>
       </c>
@@ -1442,24 +1452,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E99A6B0F-C25F-4EA5-B38A-0940CB4B168C}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView topLeftCell="C3" zoomScale="117" zoomScaleNormal="117" workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="16.08984375" customWidth="1"/>
-    <col min="3" max="3" width="19.36328125" customWidth="1"/>
-    <col min="4" max="4" width="16.26953125" customWidth="1"/>
-    <col min="5" max="5" width="16.36328125" customWidth="1"/>
-    <col min="6" max="6" width="9.7265625" customWidth="1"/>
-    <col min="7" max="7" width="7.26953125" customWidth="1"/>
-    <col min="8" max="8" width="9.453125" customWidth="1"/>
-    <col min="9" max="9" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" customWidth="1"/>
+    <col min="4" max="4" width="16.21875" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" customWidth="1"/>
+    <col min="6" max="6" width="9.77734375" customWidth="1"/>
+    <col min="7" max="7" width="7.21875" customWidth="1"/>
+    <col min="8" max="8" width="9.44140625" customWidth="1"/>
+    <col min="9" max="9" width="11.21875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="45" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="19.05" x14ac:dyDescent="0.2">
       <c r="A1" s="4"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -1476,7 +1486,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" ht="16.8" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1501,7 +1511,7 @@
         <v>4</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
@@ -1975,24 +1985,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView topLeftCell="A3" zoomScale="132" zoomScaleNormal="132" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="16.08984375" customWidth="1"/>
-    <col min="3" max="3" width="19.36328125" customWidth="1"/>
-    <col min="4" max="4" width="16.26953125" customWidth="1"/>
-    <col min="5" max="5" width="16.36328125" customWidth="1"/>
-    <col min="6" max="6" width="9.7265625" customWidth="1"/>
-    <col min="7" max="7" width="7.26953125" customWidth="1"/>
-    <col min="8" max="8" width="9.453125" customWidth="1"/>
-    <col min="9" max="9" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="35.90625" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" customWidth="1"/>
+    <col min="4" max="4" width="16.21875" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" customWidth="1"/>
+    <col min="6" max="6" width="9.77734375" customWidth="1"/>
+    <col min="7" max="7" width="7.21875" customWidth="1"/>
+    <col min="8" max="8" width="9.44140625" customWidth="1"/>
+    <col min="9" max="9" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="35.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="19.05" x14ac:dyDescent="0.2">
       <c r="A1" s="4"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -2009,7 +2019,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" ht="16.8" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
@@ -2034,7 +2044,7 @@
         <v>4</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
@@ -2048,7 +2058,7 @@
         <v>5</v>
       </c>
       <c r="E5" s="5">
-        <v>45824</v>
+        <v>45825</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
@@ -2092,10 +2102,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>45</v>
@@ -2123,10 +2133,10 @@
         <v>53</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>58</v>
+        <v>88</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="6"/>
@@ -2138,7 +2148,7 @@
       <c r="J11" s="3"/>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>date date ,</v>
+        <v>shift_date date ,</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -2149,10 +2159,10 @@
         <v>54</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>56</v>
+        <v>89</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -2162,7 +2172,7 @@
       <c r="J12" s="3"/>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>start datetime ,</v>
+        <v>shift_start datetime ,</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -2173,10 +2183,10 @@
         <v>55</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -2186,7 +2196,7 @@
       <c r="J13" s="3"/>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v>end datetime ,</v>
+        <v>shift_end datetime ,</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -2194,10 +2204,10 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>45</v>
@@ -2208,7 +2218,7 @@
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
@@ -2501,23 +2511,23 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:XFD14"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="16.08984375" customWidth="1"/>
-    <col min="3" max="3" width="19.36328125" customWidth="1"/>
-    <col min="4" max="4" width="16.26953125" customWidth="1"/>
-    <col min="5" max="5" width="16.36328125" customWidth="1"/>
-    <col min="6" max="6" width="9.7265625" customWidth="1"/>
-    <col min="7" max="7" width="7.26953125" customWidth="1"/>
-    <col min="8" max="8" width="9.453125" customWidth="1"/>
-    <col min="9" max="9" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.90625" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" customWidth="1"/>
+    <col min="4" max="4" width="16.21875" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" customWidth="1"/>
+    <col min="6" max="6" width="9.77734375" customWidth="1"/>
+    <col min="7" max="7" width="7.21875" customWidth="1"/>
+    <col min="8" max="8" width="9.44140625" customWidth="1"/>
+    <col min="9" max="9" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="19.05" x14ac:dyDescent="0.2">
       <c r="A1" s="4"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -2534,7 +2544,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" ht="16.8" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
@@ -2559,7 +2569,7 @@
         <v>4</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
@@ -2573,7 +2583,7 @@
         <v>5</v>
       </c>
       <c r="E5" s="5">
-        <v>45824</v>
+        <v>45825</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
@@ -2620,10 +2630,10 @@
         <v>53</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>58</v>
+        <v>85</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="6"/>
@@ -2635,7 +2645,7 @@
       <c r="J10" s="3"/>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v>date date ,</v>
+        <v>event_date date ,</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -2646,10 +2656,10 @@
         <v>54</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>56</v>
+        <v>86</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>45</v>
+        <v>83</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="6"/>
@@ -2659,7 +2669,7 @@
       <c r="J11" s="3"/>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>start int ,</v>
+        <v>event_start datetime ,</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -2670,10 +2680,10 @@
         <v>55</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>57</v>
+        <v>87</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="6"/>
@@ -2683,7 +2693,7 @@
       <c r="J12" s="3"/>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>end datetime ,</v>
+        <v>event_end datetime ,</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -2691,13 +2701,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>86</v>
+        <v>45</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="6" t="s">
@@ -2709,11 +2719,11 @@
       <c r="H13" s="6"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v>eｖent_id datetime ,</v>
+        <v>eｖent_id int ,</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -2721,10 +2731,10 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>45</v>
@@ -2735,7 +2745,7 @@
       <c r="H14" s="6"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
@@ -3027,24 +3037,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{034BC70C-75C3-4172-8651-A4CAADD718B7}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD10"/>
+    <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="16.08984375" customWidth="1"/>
-    <col min="3" max="3" width="19.36328125" customWidth="1"/>
-    <col min="4" max="4" width="16.26953125" customWidth="1"/>
-    <col min="5" max="5" width="16.36328125" customWidth="1"/>
-    <col min="6" max="6" width="9.7265625" customWidth="1"/>
-    <col min="7" max="7" width="7.26953125" customWidth="1"/>
-    <col min="8" max="8" width="9.453125" customWidth="1"/>
-    <col min="9" max="9" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.90625" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" customWidth="1"/>
+    <col min="4" max="4" width="16.21875" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" customWidth="1"/>
+    <col min="6" max="6" width="9.77734375" customWidth="1"/>
+    <col min="7" max="7" width="7.21875" customWidth="1"/>
+    <col min="8" max="8" width="9.44140625" customWidth="1"/>
+    <col min="9" max="9" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="19.05" x14ac:dyDescent="0.2">
       <c r="A1" s="4"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -3061,7 +3071,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" ht="16.8" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
@@ -3080,13 +3090,13 @@
         <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
@@ -3094,7 +3104,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -3144,10 +3154,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>45</v>
@@ -3162,7 +3172,7 @@
       <c r="H10" s="6"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
@@ -3174,10 +3184,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>46</v>
@@ -3192,14 +3202,14 @@
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
         <v>type_name varchar (8)</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>3</v>
       </c>
@@ -3217,7 +3227,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" ht="13.05" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>4</v>
       </c>
@@ -3538,24 +3548,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D60B1F0D-DEC1-43A6-98A1-7AE8A7B94815}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="16.08984375" customWidth="1"/>
-    <col min="3" max="3" width="19.36328125" customWidth="1"/>
-    <col min="4" max="4" width="16.26953125" customWidth="1"/>
-    <col min="5" max="5" width="16.36328125" customWidth="1"/>
-    <col min="6" max="6" width="9.7265625" customWidth="1"/>
-    <col min="7" max="7" width="7.26953125" customWidth="1"/>
-    <col min="8" max="8" width="9.453125" customWidth="1"/>
-    <col min="9" max="9" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.90625" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" customWidth="1"/>
+    <col min="4" max="4" width="16.21875" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" customWidth="1"/>
+    <col min="6" max="6" width="9.77734375" customWidth="1"/>
+    <col min="7" max="7" width="7.21875" customWidth="1"/>
+    <col min="8" max="8" width="9.44140625" customWidth="1"/>
+    <col min="9" max="9" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="19.05" x14ac:dyDescent="0.2">
       <c r="A1" s="4"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -3572,7 +3582,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" ht="16.8" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
@@ -3597,7 +3607,7 @@
         <v>4</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
@@ -3611,7 +3621,7 @@
         <v>5</v>
       </c>
       <c r="E5" s="5">
-        <v>45824</v>
+        <v>45825</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
@@ -3655,27 +3665,25 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>46</v>
       </c>
       <c r="E10" s="3">
-        <v>65534</v>
+        <v>297</v>
       </c>
       <c r="F10" s="6"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
-      <c r="J10" s="3" t="s">
-        <v>70</v>
-      </c>
+      <c r="J10" s="3"/>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v>manual_file varchar (65534),</v>
+        <v>manual_file varchar (297),</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -3683,10 +3691,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>45</v>
@@ -3699,7 +3707,7 @@
         <v>2</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
@@ -3711,13 +3719,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -3735,10 +3743,10 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>45</v>

--- a/documents/外部設計/061225_データベース設計書_落穂ひろい.xlsx
+++ b/documents/外部設計/061225_データベース設計書_落穂ひろい.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\plusdojo2025\A5\documents\外部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7DCC14F-4F61-43C5-9963-92728312B7F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{423F9515-B4CA-4256-BAEA-548D0E2716C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="192" yWindow="168" windowWidth="13224" windowHeight="12684" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="91">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -575,10 +575,6 @@
   </si>
   <si>
     <t>ファイルID</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>datetime</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1452,7 +1448,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E99A6B0F-C25F-4EA5-B38A-0940CB4B168C}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView topLeftCell="C3" zoomScale="117" zoomScaleNormal="117" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C3" zoomScale="117" zoomScaleNormal="117" workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
@@ -1986,7 +1982,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView topLeftCell="A3" zoomScale="132" zoomScaleNormal="132" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -2044,7 +2040,7 @@
         <v>4</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
@@ -2133,7 +2129,7 @@
         <v>53</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>56</v>
@@ -2159,12 +2155,14 @@
         <v>54</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="E12" s="3"/>
+        <v>46</v>
+      </c>
+      <c r="E12" s="3">
+        <v>6</v>
+      </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
@@ -2172,7 +2170,7 @@
       <c r="J12" s="3"/>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>shift_start datetime ,</v>
+        <v>shift_start varchar (6),</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -2183,12 +2181,14 @@
         <v>55</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="E13" s="3"/>
+        <v>46</v>
+      </c>
+      <c r="E13" s="3">
+        <v>6</v>
+      </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
@@ -2196,7 +2196,7 @@
       <c r="J13" s="3"/>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v>shift_end datetime ,</v>
+        <v>shift_end varchar (6),</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -2511,7 +2511,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -2569,7 +2569,7 @@
         <v>4</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
@@ -2630,7 +2630,7 @@
         <v>53</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>56</v>
@@ -2656,12 +2656,14 @@
         <v>54</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="E11" s="3"/>
+        <v>46</v>
+      </c>
+      <c r="E11" s="3">
+        <v>6</v>
+      </c>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
@@ -2669,7 +2671,7 @@
       <c r="J11" s="3"/>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>event_start datetime ,</v>
+        <v>event_start varchar (6),</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -2680,12 +2682,14 @@
         <v>55</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="E12" s="3"/>
+        <v>46</v>
+      </c>
+      <c r="E12" s="3">
+        <v>6</v>
+      </c>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
@@ -2693,7 +2697,7 @@
       <c r="J12" s="3"/>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>event_end datetime ,</v>
+        <v>event_end varchar (6),</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -3548,7 +3552,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D60B1F0D-DEC1-43A6-98A1-7AE8A7B94815}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
@@ -3607,7 +3611,7 @@
         <v>4</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
@@ -3746,7 +3750,7 @@
         <v>82</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>45</v>

--- a/documents/外部設計/061225_データベース設計書_落穂ひろい.xlsx
+++ b/documents/外部設計/061225_データベース設計書_落穂ひろい.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\plusdojo2025\A5\documents\外部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{423F9515-B4CA-4256-BAEA-548D0E2716C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D68A117B-F8D5-432B-A3D6-88EAD2706AC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -1448,7 +1448,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E99A6B0F-C25F-4EA5-B38A-0940CB4B168C}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C3" zoomScale="117" zoomScaleNormal="117" workbookViewId="0">
+    <sheetView topLeftCell="C3" zoomScale="117" zoomScaleNormal="117" workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
@@ -1982,7 +1982,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView topLeftCell="A3" zoomScale="132" zoomScaleNormal="132" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -2054,7 +2054,7 @@
         <v>5</v>
       </c>
       <c r="E5" s="5">
-        <v>45825</v>
+        <v>45827</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
@@ -2510,8 +2510,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79B33EA2-626B-430F-8E94-8B4B16AE7525}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -2583,7 +2583,7 @@
         <v>5</v>
       </c>
       <c r="E5" s="5">
-        <v>45825</v>
+        <v>45827</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">

--- a/documents/外部設計/061225_データベース設計書_落穂ひろい.xlsx
+++ b/documents/外部設計/061225_データベース設計書_落穂ひろい.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\plusdojo2025\A5\documents\外部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D68A117B-F8D5-432B-A3D6-88EAD2706AC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3D7B971-B7F8-4C13-82D0-FFC0A30A76F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="57840" windowHeight="31920" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -394,10 +394,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>0と1のみ。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>日付</t>
     <rPh sb="0" eb="2">
       <t>ヒヅケ</t>
@@ -609,6 +605,16 @@
     <t>村井啓亮</t>
     <rPh sb="0" eb="4">
       <t>ムライケイスケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0と1のみ。店員は0、店長は1とする。</t>
+    <rPh sb="6" eb="8">
+      <t>テンイン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>テンチョウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1043,21 +1049,21 @@
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.44140625" customWidth="1"/>
-    <col min="4" max="4" width="17.88671875" customWidth="1"/>
-    <col min="5" max="5" width="21.33203125" customWidth="1"/>
-    <col min="6" max="6" width="58.6640625" customWidth="1"/>
+    <col min="2" max="2" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.5" customWidth="1"/>
+    <col min="4" max="4" width="17.875" customWidth="1"/>
+    <col min="5" max="5" width="21.375" customWidth="1"/>
+    <col min="6" max="6" width="58.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="19.2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
         <v>20</v>
       </c>
@@ -1071,7 +1077,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="16.8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1085,15 +1091,15 @@
         <v>45820</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="D4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="D5" s="1" t="s">
         <v>5</v>
       </c>
@@ -1101,7 +1107,7 @@
         <v>45824</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B7" s="1" t="s">
         <v>6</v>
       </c>
@@ -1118,7 +1124,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B8" s="3">
         <v>1</v>
       </c>
@@ -1135,7 +1141,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B9" s="3">
         <v>2</v>
       </c>
@@ -1152,7 +1158,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B10" s="3">
         <v>3</v>
       </c>
@@ -1169,15 +1175,15 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B11" s="3">
         <v>4</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>28</v>
@@ -1186,7 +1192,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B12" s="3">
         <v>5</v>
       </c>
@@ -1203,7 +1209,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B13" s="3">
         <v>6</v>
       </c>
@@ -1212,7 +1218,7 @@
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" spans="1:6" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B14" s="3">
         <v>7</v>
       </c>
@@ -1221,7 +1227,7 @@
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B15" s="3">
         <v>8</v>
       </c>
@@ -1230,7 +1236,7 @@
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B16" s="3">
         <v>9</v>
       </c>
@@ -1239,7 +1245,7 @@
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B17" s="3">
         <v>10</v>
       </c>
@@ -1248,7 +1254,7 @@
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B18" s="3">
         <v>11</v>
       </c>
@@ -1257,7 +1263,7 @@
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B19" s="3">
         <v>12</v>
       </c>
@@ -1266,7 +1272,7 @@
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B20" s="3">
         <v>13</v>
       </c>
@@ -1275,7 +1281,7 @@
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B21" s="3">
         <v>14</v>
       </c>
@@ -1284,7 +1290,7 @@
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B22" s="3">
         <v>15</v>
       </c>
@@ -1293,7 +1299,7 @@
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B23" s="3">
         <v>16</v>
       </c>
@@ -1302,7 +1308,7 @@
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B24" s="3">
         <v>17</v>
       </c>
@@ -1311,7 +1317,7 @@
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B25" s="3">
         <v>18</v>
       </c>
@@ -1320,7 +1326,7 @@
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B26" s="3">
         <v>19</v>
       </c>
@@ -1329,7 +1335,7 @@
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B27" s="3">
         <v>20</v>
       </c>
@@ -1338,7 +1344,7 @@
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B28" s="3">
         <v>21</v>
       </c>
@@ -1347,7 +1353,7 @@
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B29" s="3">
         <v>22</v>
       </c>
@@ -1356,7 +1362,7 @@
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B30" s="3">
         <v>23</v>
       </c>
@@ -1365,7 +1371,7 @@
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B31" s="3">
         <v>24</v>
       </c>
@@ -1374,7 +1380,7 @@
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B32" s="3">
         <v>25</v>
       </c>
@@ -1383,7 +1389,7 @@
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B33" s="3">
         <v>26</v>
       </c>
@@ -1392,7 +1398,7 @@
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B34" s="3">
         <v>27</v>
       </c>
@@ -1401,7 +1407,7 @@
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B35" s="3">
         <v>28</v>
       </c>
@@ -1410,7 +1416,7 @@
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B36" s="3">
         <v>29</v>
       </c>
@@ -1419,7 +1425,7 @@
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B37" s="3">
         <v>30</v>
       </c>
@@ -1428,7 +1434,7 @@
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B38" s="3">
         <v>31</v>
       </c>
@@ -1448,27 +1454,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E99A6B0F-C25F-4EA5-B38A-0940CB4B168C}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView topLeftCell="C3" zoomScale="117" zoomScaleNormal="117" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="C3" zoomScale="117" zoomScaleNormal="117" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="16.109375" customWidth="1"/>
-    <col min="3" max="3" width="19.33203125" customWidth="1"/>
-    <col min="4" max="4" width="16.21875" customWidth="1"/>
-    <col min="5" max="5" width="16.33203125" customWidth="1"/>
-    <col min="6" max="6" width="9.77734375" customWidth="1"/>
-    <col min="7" max="7" width="7.21875" customWidth="1"/>
-    <col min="8" max="8" width="9.44140625" customWidth="1"/>
-    <col min="9" max="9" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.125" customWidth="1"/>
+    <col min="3" max="3" width="19.375" customWidth="1"/>
+    <col min="4" max="4" width="16.25" customWidth="1"/>
+    <col min="5" max="5" width="16.375" customWidth="1"/>
+    <col min="6" max="6" width="9.75" customWidth="1"/>
+    <col min="7" max="7" width="7.25" customWidth="1"/>
+    <col min="8" max="8" width="9.5" customWidth="1"/>
+    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="45" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="19.05" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A1" s="4"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
         <v>20</v>
       </c>
@@ -1482,7 +1488,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="16.8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1496,7 +1502,7 @@
         <v>45820</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="s">
         <v>15</v>
       </c>
@@ -1507,10 +1513,10 @@
         <v>4</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B5" s="1" t="s">
         <v>16</v>
       </c>
@@ -1524,7 +1530,7 @@
         <v>45824</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -1560,7 +1566,7 @@
         <v>create table user (</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
         <v>1</v>
       </c>
@@ -1590,7 +1596,7 @@
         <v>id int ,</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
         <v>2</v>
       </c>
@@ -1620,7 +1626,7 @@
         <v>user_name varchar (50),</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
         <v>3</v>
       </c>
@@ -1650,7 +1656,7 @@
         <v>password varchar (50),</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
         <v>4</v>
       </c>
@@ -1671,14 +1677,14 @@
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3" t="s">
-        <v>52</v>
+        <v>90</v>
       </c>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
         <v xml:space="preserve">tenchou_flag int </v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
         <v>5</v>
       </c>
@@ -1696,7 +1702,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15" s="3">
         <v>6</v>
       </c>
@@ -1714,7 +1720,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
         <v>7</v>
       </c>
@@ -1732,7 +1738,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A17" s="3">
         <v>8</v>
       </c>
@@ -1750,7 +1756,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A18" s="3">
         <v>9</v>
       </c>
@@ -1768,7 +1774,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A19" s="3">
         <v>10</v>
       </c>
@@ -1786,7 +1792,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A20" s="3">
         <v>11</v>
       </c>
@@ -1804,7 +1810,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A21" s="3">
         <v>12</v>
       </c>
@@ -1822,7 +1828,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A22" s="3">
         <v>13</v>
       </c>
@@ -1840,7 +1846,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A23" s="3">
         <v>14</v>
       </c>
@@ -1858,7 +1864,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A24" s="3">
         <v>15</v>
       </c>
@@ -1876,7 +1882,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A25" s="3">
         <v>16</v>
       </c>
@@ -1894,7 +1900,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A26" s="3">
         <v>17</v>
       </c>
@@ -1912,7 +1918,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A27" s="3">
         <v>18</v>
       </c>
@@ -1930,7 +1936,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A28" s="3">
         <v>19</v>
       </c>
@@ -1948,7 +1954,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A29" s="3">
         <v>20</v>
       </c>
@@ -1966,7 +1972,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
       <c r="L30" t="s">
         <v>19</v>
       </c>
@@ -1985,23 +1991,23 @@
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="16.109375" customWidth="1"/>
-    <col min="3" max="3" width="19.33203125" customWidth="1"/>
-    <col min="4" max="4" width="16.21875" customWidth="1"/>
-    <col min="5" max="5" width="16.33203125" customWidth="1"/>
-    <col min="6" max="6" width="9.77734375" customWidth="1"/>
-    <col min="7" max="7" width="7.21875" customWidth="1"/>
-    <col min="8" max="8" width="9.44140625" customWidth="1"/>
-    <col min="9" max="9" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="35.88671875" customWidth="1"/>
+    <col min="2" max="2" width="16.125" customWidth="1"/>
+    <col min="3" max="3" width="19.375" customWidth="1"/>
+    <col min="4" max="4" width="16.25" customWidth="1"/>
+    <col min="5" max="5" width="16.375" customWidth="1"/>
+    <col min="6" max="6" width="9.75" customWidth="1"/>
+    <col min="7" max="7" width="7.25" customWidth="1"/>
+    <col min="8" max="8" width="9.5" customWidth="1"/>
+    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="35.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="19.05" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A1" s="4"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
         <v>20</v>
       </c>
@@ -2015,7 +2021,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="16.8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
@@ -2029,7 +2035,7 @@
         <v>45820</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="s">
         <v>15</v>
       </c>
@@ -2040,10 +2046,10 @@
         <v>4</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B5" s="1" t="s">
         <v>16</v>
       </c>
@@ -2057,7 +2063,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -2093,15 +2099,15 @@
         <v>create table shift (</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>65</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>66</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>45</v>
@@ -2121,18 +2127,18 @@
         <v>shift_id int ,</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="6"/>
@@ -2147,15 +2153,15 @@
         <v>shift_date date ,</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>46</v>
@@ -2173,15 +2179,15 @@
         <v>shift_start varchar (6),</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>46</v>
@@ -2199,15 +2205,15 @@
         <v>shift_end varchar (6),</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>45</v>
@@ -2218,14 +2224,14 @@
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
         <v xml:space="preserve">user_id int </v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15" s="3">
         <v>6</v>
       </c>
@@ -2243,7 +2249,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
         <v>7</v>
       </c>
@@ -2261,7 +2267,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A17" s="3">
         <v>8</v>
       </c>
@@ -2279,7 +2285,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A18" s="3">
         <v>9</v>
       </c>
@@ -2297,7 +2303,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A19" s="3">
         <v>10</v>
       </c>
@@ -2315,7 +2321,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A20" s="3">
         <v>11</v>
       </c>
@@ -2333,7 +2339,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A21" s="3">
         <v>12</v>
       </c>
@@ -2351,7 +2357,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A22" s="3">
         <v>13</v>
       </c>
@@ -2369,7 +2375,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A23" s="3">
         <v>14</v>
       </c>
@@ -2387,7 +2393,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A24" s="3">
         <v>15</v>
       </c>
@@ -2405,7 +2411,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A25" s="3">
         <v>16</v>
       </c>
@@ -2423,7 +2429,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A26" s="3">
         <v>17</v>
       </c>
@@ -2441,7 +2447,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A27" s="3">
         <v>18</v>
       </c>
@@ -2459,7 +2465,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A28" s="3">
         <v>19</v>
       </c>
@@ -2477,7 +2483,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A29" s="3">
         <v>20</v>
       </c>
@@ -2495,7 +2501,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
       <c r="L30" t="s">
         <v>19</v>
       </c>
@@ -2510,27 +2516,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79B33EA2-626B-430F-8E94-8B4B16AE7525}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="16.109375" customWidth="1"/>
-    <col min="3" max="3" width="19.33203125" customWidth="1"/>
-    <col min="4" max="4" width="16.21875" customWidth="1"/>
-    <col min="5" max="5" width="16.33203125" customWidth="1"/>
-    <col min="6" max="6" width="9.77734375" customWidth="1"/>
-    <col min="7" max="7" width="7.21875" customWidth="1"/>
-    <col min="8" max="8" width="9.44140625" customWidth="1"/>
-    <col min="9" max="9" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.88671875" customWidth="1"/>
+    <col min="2" max="2" width="16.125" customWidth="1"/>
+    <col min="3" max="3" width="19.375" customWidth="1"/>
+    <col min="4" max="4" width="16.25" customWidth="1"/>
+    <col min="5" max="5" width="16.375" customWidth="1"/>
+    <col min="6" max="6" width="9.75" customWidth="1"/>
+    <col min="7" max="7" width="7.25" customWidth="1"/>
+    <col min="8" max="8" width="9.5" customWidth="1"/>
+    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="19.05" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A1" s="4"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
         <v>20</v>
       </c>
@@ -2544,7 +2550,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="16.8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
@@ -2558,7 +2564,7 @@
         <v>45820</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="s">
         <v>15</v>
       </c>
@@ -2569,10 +2575,10 @@
         <v>4</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B5" s="1" t="s">
         <v>16</v>
       </c>
@@ -2586,7 +2592,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -2622,18 +2628,18 @@
         <v>create table event (</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="6"/>
@@ -2648,15 +2654,15 @@
         <v>event_date date ,</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>46</v>
@@ -2674,15 +2680,15 @@
         <v>event_start varchar (6),</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>46</v>
@@ -2700,15 +2706,15 @@
         <v>event_end varchar (6),</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>45</v>
@@ -2723,22 +2729,22 @@
       <c r="H13" s="6"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
         <v>eｖent_id int ,</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>74</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>75</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>45</v>
@@ -2749,14 +2755,14 @@
       <c r="H14" s="6"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
         <v xml:space="preserve">type_id int </v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15" s="3">
         <v>6</v>
       </c>
@@ -2774,7 +2780,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
         <v>7</v>
       </c>
@@ -2792,7 +2798,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A17" s="3">
         <v>8</v>
       </c>
@@ -2810,7 +2816,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A18" s="3">
         <v>9</v>
       </c>
@@ -2828,7 +2834,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A19" s="3">
         <v>10</v>
       </c>
@@ -2846,7 +2852,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A20" s="3">
         <v>11</v>
       </c>
@@ -2864,7 +2870,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A21" s="3">
         <v>12</v>
       </c>
@@ -2882,7 +2888,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A22" s="3">
         <v>13</v>
       </c>
@@ -2900,7 +2906,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A23" s="3">
         <v>14</v>
       </c>
@@ -2918,7 +2924,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A24" s="3">
         <v>15</v>
       </c>
@@ -2936,7 +2942,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A25" s="3">
         <v>16</v>
       </c>
@@ -2954,7 +2960,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A26" s="3">
         <v>17</v>
       </c>
@@ -2972,7 +2978,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A27" s="3">
         <v>18</v>
       </c>
@@ -2990,7 +2996,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A28" s="3">
         <v>19</v>
       </c>
@@ -3008,7 +3014,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A29" s="3">
         <v>20</v>
       </c>
@@ -3026,7 +3032,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
       <c r="L30" t="s">
         <v>19</v>
       </c>
@@ -3045,23 +3051,23 @@
       <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="16.109375" customWidth="1"/>
-    <col min="3" max="3" width="19.33203125" customWidth="1"/>
-    <col min="4" max="4" width="16.21875" customWidth="1"/>
-    <col min="5" max="5" width="16.33203125" customWidth="1"/>
-    <col min="6" max="6" width="9.77734375" customWidth="1"/>
-    <col min="7" max="7" width="7.21875" customWidth="1"/>
-    <col min="8" max="8" width="9.44140625" customWidth="1"/>
-    <col min="9" max="9" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.88671875" customWidth="1"/>
+    <col min="2" max="2" width="16.125" customWidth="1"/>
+    <col min="3" max="3" width="19.375" customWidth="1"/>
+    <col min="4" max="4" width="16.25" customWidth="1"/>
+    <col min="5" max="5" width="16.375" customWidth="1"/>
+    <col min="6" max="6" width="9.75" customWidth="1"/>
+    <col min="7" max="7" width="7.25" customWidth="1"/>
+    <col min="8" max="8" width="9.5" customWidth="1"/>
+    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="19.05" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A1" s="4"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
         <v>20</v>
       </c>
@@ -3075,7 +3081,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="16.8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
@@ -3089,26 +3095,26 @@
         <v>45820</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B5" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -3117,7 +3123,7 @@
         <v>45824</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -3153,15 +3159,15 @@
         <v>create table event_type (</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>74</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>75</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>45</v>
@@ -3176,22 +3182,22 @@
       <c r="H10" s="6"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
         <v>type_id int ,</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>77</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>78</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>46</v>
@@ -3206,14 +3212,14 @@
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
         <v>type_name varchar (8)</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
         <v>3</v>
       </c>
@@ -3231,7 +3237,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="13.05" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
         <v>4</v>
       </c>
@@ -3249,7 +3255,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
         <v>5</v>
       </c>
@@ -3267,7 +3273,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15" s="3">
         <v>6</v>
       </c>
@@ -3285,7 +3291,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
         <v>7</v>
       </c>
@@ -3303,7 +3309,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A17" s="3">
         <v>8</v>
       </c>
@@ -3321,7 +3327,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A18" s="3">
         <v>9</v>
       </c>
@@ -3339,7 +3345,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A19" s="3">
         <v>10</v>
       </c>
@@ -3357,7 +3363,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A20" s="3">
         <v>11</v>
       </c>
@@ -3375,7 +3381,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A21" s="3">
         <v>12</v>
       </c>
@@ -3393,7 +3399,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A22" s="3">
         <v>13</v>
       </c>
@@ -3411,7 +3417,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A23" s="3">
         <v>14</v>
       </c>
@@ -3429,7 +3435,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A24" s="3">
         <v>15</v>
       </c>
@@ -3447,7 +3453,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A25" s="3">
         <v>16</v>
       </c>
@@ -3465,7 +3471,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A26" s="3">
         <v>17</v>
       </c>
@@ -3483,7 +3489,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A27" s="3">
         <v>18</v>
       </c>
@@ -3501,7 +3507,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A28" s="3">
         <v>19</v>
       </c>
@@ -3519,7 +3525,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A29" s="3">
         <v>20</v>
       </c>
@@ -3537,7 +3543,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
       <c r="L30" t="s">
         <v>19</v>
       </c>
@@ -3556,23 +3562,23 @@
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="16.109375" customWidth="1"/>
-    <col min="3" max="3" width="19.33203125" customWidth="1"/>
-    <col min="4" max="4" width="16.21875" customWidth="1"/>
-    <col min="5" max="5" width="16.33203125" customWidth="1"/>
-    <col min="6" max="6" width="9.77734375" customWidth="1"/>
-    <col min="7" max="7" width="7.21875" customWidth="1"/>
-    <col min="8" max="8" width="9.44140625" customWidth="1"/>
-    <col min="9" max="9" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.88671875" customWidth="1"/>
+    <col min="2" max="2" width="16.125" customWidth="1"/>
+    <col min="3" max="3" width="19.375" customWidth="1"/>
+    <col min="4" max="4" width="16.25" customWidth="1"/>
+    <col min="5" max="5" width="16.375" customWidth="1"/>
+    <col min="6" max="6" width="9.75" customWidth="1"/>
+    <col min="7" max="7" width="7.25" customWidth="1"/>
+    <col min="8" max="8" width="9.5" customWidth="1"/>
+    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="19.05" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A1" s="4"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
         <v>20</v>
       </c>
@@ -3586,7 +3592,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="16.8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
@@ -3600,7 +3606,7 @@
         <v>45820</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="s">
         <v>15</v>
       </c>
@@ -3611,10 +3617,10 @@
         <v>4</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B5" s="1" t="s">
         <v>16</v>
       </c>
@@ -3628,7 +3634,7 @@
         <v>45825</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -3664,15 +3670,15 @@
         <v>create table manual (</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>58</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>59</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>46</v>
@@ -3690,15 +3696,15 @@
         <v>manual_file varchar (297),</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>68</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>69</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>45</v>
@@ -3711,25 +3717,25 @@
         <v>2</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
         <v>importance int ,</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>73</v>
-      </c>
       <c r="D12" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -3742,15 +3748,15 @@
         <v>date_up date ,</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>82</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>83</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>45</v>
@@ -3770,7 +3776,7 @@
         <v xml:space="preserve">file_id int </v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
         <v>5</v>
       </c>
@@ -3788,7 +3794,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15" s="3">
         <v>6</v>
       </c>
@@ -3806,7 +3812,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
         <v>7</v>
       </c>
@@ -3824,7 +3830,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A17" s="3">
         <v>8</v>
       </c>
@@ -3842,7 +3848,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A18" s="3">
         <v>9</v>
       </c>
@@ -3860,7 +3866,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A19" s="3">
         <v>10</v>
       </c>
@@ -3878,7 +3884,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A20" s="3">
         <v>11</v>
       </c>
@@ -3896,7 +3902,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A21" s="3">
         <v>12</v>
       </c>
@@ -3914,7 +3920,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A22" s="3">
         <v>13</v>
       </c>
@@ -3932,7 +3938,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A23" s="3">
         <v>14</v>
       </c>
@@ -3950,7 +3956,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A24" s="3">
         <v>15</v>
       </c>
@@ -3968,7 +3974,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A25" s="3">
         <v>16</v>
       </c>
@@ -3986,7 +3992,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A26" s="3">
         <v>17</v>
       </c>
@@ -4004,7 +4010,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A27" s="3">
         <v>18</v>
       </c>
@@ -4022,7 +4028,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A28" s="3">
         <v>19</v>
       </c>
@@ -4040,7 +4046,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A29" s="3">
         <v>20</v>
       </c>
@@ -4058,7 +4064,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
       <c r="L30" t="s">
         <v>19</v>
       </c>

--- a/documents/外部設計/061225_データベース設計書_落穂ひろい.xlsx
+++ b/documents/外部設計/061225_データベース設計書_落穂ひろい.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\plusdojo2025\A5\documents\外部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3D7B971-B7F8-4C13-82D0-FFC0A30A76F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F62B20E7-9D7E-4631-AD01-62893E1C1F49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="57840" windowHeight="31920" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16500" yWindow="4845" windowWidth="36900" windowHeight="23445" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -1455,7 +1455,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C3" zoomScale="117" zoomScaleNormal="117" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
